--- a/Filtered_By_Region/Region III/Region III_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region III/Region III_ELECTRIFICATION.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR217"/>
+  <dimension ref="A1:AS217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +659,11 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,19 +724,12 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>january 10, 2018</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>43096</v>
       </c>
       <c r="X2" t="inlineStr">
@@ -738,7 +737,6 @@
           <t>ANGEL GABRIEL BUILDERS AND REALTY CORP.</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
@@ -775,14 +773,12 @@
       <c r="AK2" t="n">
         <v>0</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="n">
         <v>1</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -856,19 +852,13 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>43365</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>43365</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>43335</v>
       </c>
       <c r="X3" t="inlineStr">
@@ -876,7 +866,6 @@
           <t>Nulas Builders</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
@@ -924,7 +913,6 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -998,19 +986,13 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>43365</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>43365</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>43335</v>
       </c>
       <c r="X4" t="inlineStr">
@@ -1018,7 +1000,6 @@
           <t>Nulas Builders</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
@@ -1066,7 +1047,6 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1099,7 +1079,6 @@
           <t>Aurora</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Baler Stand Alone</t>
@@ -1127,7 +1106,6 @@
       <c r="K5" t="n">
         <v>1894542.42</v>
       </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1136,17 +1114,6 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
@@ -1194,7 +1161,6 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1257,7 +1223,6 @@
       <c r="K6" t="n">
         <v>1697974.27</v>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1266,17 +1231,6 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
@@ -1324,7 +1278,6 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1387,7 +1340,6 @@
       <c r="K7" t="n">
         <v>930975.89</v>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1396,17 +1348,6 @@
       <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
@@ -1454,7 +1395,6 @@
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1517,7 +1457,6 @@
       <c r="K8" t="n">
         <v>2088109.79</v>
       </c>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1526,17 +1465,6 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
@@ -1584,7 +1512,6 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1647,7 +1574,6 @@
       <c r="K9" t="n">
         <v>2088109.79</v>
       </c>
-      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1656,17 +1582,6 @@
       <c r="N9" t="n">
         <v>1</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
@@ -1714,7 +1629,6 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1777,7 +1691,6 @@
       <c r="K10" t="n">
         <v>1902320</v>
       </c>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1786,17 +1699,6 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
@@ -1844,7 +1746,6 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1907,7 +1808,6 @@
       <c r="K11" t="n">
         <v>2077387.33</v>
       </c>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1916,17 +1816,6 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
@@ -1974,7 +1863,6 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2037,7 +1925,6 @@
       <c r="K12" t="n">
         <v>1180594.82</v>
       </c>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2046,17 +1933,6 @@
       <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
@@ -2104,7 +1980,6 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2167,7 +2042,6 @@
       <c r="K13" t="n">
         <v>1955011.71</v>
       </c>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2176,17 +2050,6 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
@@ -2234,7 +2097,6 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2297,7 +2159,6 @@
       <c r="K14" t="n">
         <v>2088109.79</v>
       </c>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2306,17 +2167,6 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
@@ -2364,7 +2214,6 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2427,7 +2276,6 @@
       <c r="K15" t="n">
         <v>2064302.23</v>
       </c>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2436,17 +2284,6 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
@@ -2494,7 +2331,6 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2557,7 +2393,6 @@
       <c r="K16" t="n">
         <v>2318025.33</v>
       </c>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2566,17 +2401,6 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
@@ -2624,7 +2448,6 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2687,7 +2510,6 @@
       <c r="K17" t="n">
         <v>1000358.11</v>
       </c>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2696,17 +2518,6 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
@@ -2754,7 +2565,6 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2817,7 +2627,6 @@
       <c r="K18" t="n">
         <v>2758246.38</v>
       </c>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2826,17 +2635,6 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
@@ -2884,7 +2682,6 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2958,27 +2755,24 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <v>43350</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>May 3-17, 2018</t>
         </is>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>43230</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>43243</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>43255</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>43285</v>
       </c>
       <c r="X19" t="inlineStr">
@@ -2986,7 +2780,6 @@
           <t>BQA Construction&amp; Trading</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
@@ -3034,7 +2827,6 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3108,27 +2900,24 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="3" t="n">
         <v>43350</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>April 24, 2018- May 7, 2018</t>
         </is>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>43223</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>43255</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>43285</v>
       </c>
       <c r="X20" t="inlineStr">
@@ -3136,7 +2925,6 @@
           <t>BQA Construction&amp; Trading</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
@@ -3184,7 +2972,6 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3258,27 +3045,24 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="O21" s="3" t="n">
         <v>43350</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>May 3-17, 2018</t>
         </is>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>43230</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>43243</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>43255</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>43285</v>
       </c>
       <c r="X21" t="inlineStr">
@@ -3286,7 +3070,6 @@
           <t>BQA Construction&amp; Trading</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
@@ -3334,7 +3117,6 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3408,27 +3190,24 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="O22" s="3" t="n">
         <v>43350</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>May 3-17, 2018</t>
         </is>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>43230</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>43243</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>43255</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>43285</v>
       </c>
       <c r="X22" t="inlineStr">
@@ -3436,7 +3215,6 @@
           <t>BQA Construction&amp; Trading</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
@@ -3484,7 +3262,6 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3558,25 +3335,22 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="O23" s="3" t="n">
         <v>43491</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="3" t="n">
         <v>43311</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>43318</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>43346</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>43367</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -3584,7 +3358,6 @@
           <t>Eirish Builders &amp; Supply Inc.</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
@@ -3632,7 +3405,6 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3706,25 +3478,22 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="O24" s="3" t="n">
         <v>43492</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="3" t="n">
         <v>43311</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>43318</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>43346</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>43368</v>
       </c>
       <c r="X24" t="inlineStr">
@@ -3732,7 +3501,6 @@
           <t>G.M. Caparas Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
@@ -3780,7 +3548,6 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3854,25 +3621,22 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="3" t="n">
         <v>43492</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="3" t="n">
         <v>43311</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>43318</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>43346</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>43368</v>
       </c>
       <c r="X25" t="inlineStr">
@@ -3880,7 +3644,6 @@
           <t>G.M. Caparas Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
@@ -3928,7 +3691,6 @@
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4002,25 +3764,22 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" s="2" t="n">
+      <c r="O26" s="3" t="n">
         <v>43491</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="3" t="n">
         <v>43311</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>43318</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>43346</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="W26" s="3" t="n">
         <v>43367</v>
       </c>
       <c r="X26" t="inlineStr">
@@ -4028,7 +3787,6 @@
           <t>Eirish Builders &amp; Supply Inc.</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
@@ -4076,7 +3834,6 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4139,7 +3896,6 @@
       <c r="K27" t="n">
         <v>6709671.39</v>
       </c>
-      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4148,17 +3904,6 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
@@ -4206,7 +3951,6 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4280,25 +4024,22 @@
       <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="2" t="n">
+      <c r="O28" s="3" t="n">
         <v>43491</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="3" t="n">
         <v>43311</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>43318</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>43332</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>43346</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="3" t="n">
         <v>43367</v>
       </c>
       <c r="X28" t="inlineStr">
@@ -4306,7 +4047,6 @@
           <t>Eirish Builders &amp; Supply Inc.</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
@@ -4354,7 +4094,6 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4417,7 +4156,6 @@
       <c r="K29" t="n">
         <v>2498371.74</v>
       </c>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4426,17 +4164,6 @@
       <c r="N29" t="n">
         <v>1</v>
       </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
@@ -4484,7 +4211,6 @@
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4547,7 +4273,6 @@
       <c r="K30" t="n">
         <v>341218.2</v>
       </c>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4556,21 +4281,16 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="O30" s="3" t="n">
         <v>43244</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>43200</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>43206</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>43210</v>
       </c>
       <c r="X30" t="inlineStr">
@@ -4578,7 +4298,6 @@
           <t>R.S DELOS REYES ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
@@ -4626,7 +4345,6 @@
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4689,7 +4407,6 @@
       <c r="K31" t="n">
         <v>762937.98</v>
       </c>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4698,21 +4415,16 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="3" t="n">
         <v>43244</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>43200</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>43206</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>43210</v>
       </c>
       <c r="X31" t="inlineStr">
@@ -4720,7 +4432,6 @@
           <t>R.S DELOS REYES ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
@@ -4768,7 +4479,6 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4831,7 +4541,6 @@
       <c r="K32" t="n">
         <v>350614.35</v>
       </c>
-      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4840,21 +4549,16 @@
       <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="O32" s="3" t="n">
         <v>43244</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>43200</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="3" t="n">
         <v>43206</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>43210</v>
       </c>
       <c r="X32" t="inlineStr">
@@ -4862,7 +4566,6 @@
           <t>R.S DELOS REYES ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
@@ -4910,7 +4613,6 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4973,7 +4675,6 @@
       <c r="K33" t="n">
         <v>745566.71</v>
       </c>
-      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4982,21 +4683,16 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="3" t="n">
         <v>43244</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>43200</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>43206</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="W33" s="3" t="n">
         <v>43210</v>
       </c>
       <c r="X33" t="inlineStr">
@@ -5004,7 +4700,6 @@
           <t>R.S DELOS REYES ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
@@ -5052,7 +4747,6 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5115,7 +4809,6 @@
       <c r="K34" t="n">
         <v>865728.1</v>
       </c>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5124,21 +4817,16 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="3" t="n">
         <v>43244</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>43200</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>43206</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="3" t="n">
         <v>43210</v>
       </c>
       <c r="X34" t="inlineStr">
@@ -5146,7 +4834,6 @@
           <t>R.S DELOS REYES ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
@@ -5194,7 +4881,6 @@
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5268,8 +4954,6 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
           <t>MLL2018-06</t>
@@ -5280,17 +4964,16 @@
           <t>MLL2018-06</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>43251</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>43273</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>43291</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>43299</v>
       </c>
       <c r="X35" t="inlineStr">
@@ -5298,7 +4981,6 @@
           <t>LOURBEL CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
@@ -5346,7 +5028,6 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5409,7 +5090,6 @@
       <c r="K36" t="n">
         <v>686281.39</v>
       </c>
-      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5418,17 +5098,6 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
@@ -5476,7 +5145,6 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5539,7 +5207,6 @@
       <c r="K37" t="n">
         <v>752305.0699999999</v>
       </c>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5548,17 +5215,6 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
@@ -5606,7 +5262,6 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5669,7 +5324,6 @@
       <c r="K38" t="n">
         <v>378620.37</v>
       </c>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5678,17 +5332,6 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
@@ -5736,7 +5379,6 @@
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5799,7 +5441,6 @@
       <c r="K39" t="n">
         <v>346345.28</v>
       </c>
-      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5808,17 +5449,6 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
@@ -5866,7 +5496,6 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-      <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5899,7 +5528,6 @@
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>Cuyapo National High School (SHS)</t>
@@ -5927,7 +5555,6 @@
       <c r="K40" t="n">
         <v>508561.84</v>
       </c>
-      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5936,17 +5563,6 @@
       <c r="N40" t="n">
         <v>1</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
@@ -5994,7 +5610,6 @@
       <c r="AN40" t="n">
         <v>0</v>
       </c>
-      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6057,7 +5672,6 @@
       <c r="K41" t="n">
         <v>268199.97</v>
       </c>
-      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6066,17 +5680,6 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
@@ -6124,7 +5727,6 @@
       <c r="AN41" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6187,7 +5789,6 @@
       <c r="K42" t="n">
         <v>415294.65</v>
       </c>
-      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6196,17 +5797,6 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
@@ -6254,7 +5844,6 @@
       <c r="AN42" t="n">
         <v>0</v>
       </c>
-      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6317,7 +5906,6 @@
       <c r="K43" t="n">
         <v>257461.33</v>
       </c>
-      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6326,17 +5914,6 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
@@ -6384,7 +5961,6 @@
       <c r="AN43" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6447,7 +6023,6 @@
       <c r="K44" t="n">
         <v>305424.83</v>
       </c>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6456,17 +6031,6 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
@@ -6514,7 +6078,6 @@
       <c r="AN44" t="n">
         <v>0</v>
       </c>
-      <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6577,7 +6140,6 @@
       <c r="K45" t="n">
         <v>334163.36</v>
       </c>
-      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6586,17 +6148,6 @@
       <c r="N45" t="n">
         <v>1</v>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
@@ -6644,7 +6195,6 @@
       <c r="AN45" t="n">
         <v>0</v>
       </c>
-      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6677,7 +6227,6 @@
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>Eduardo L. Joson Mem. HS (SHS)</t>
@@ -6705,7 +6254,6 @@
       <c r="K46" t="n">
         <v>380604.8</v>
       </c>
-      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6714,17 +6262,6 @@
       <c r="N46" t="n">
         <v>1</v>
       </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
@@ -6772,7 +6309,6 @@
       <c r="AN46" t="n">
         <v>0</v>
       </c>
-      <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6835,7 +6371,6 @@
       <c r="K47" t="n">
         <v>463571.14</v>
       </c>
-      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6844,17 +6379,6 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
@@ -6902,7 +6426,6 @@
       <c r="AN47" t="n">
         <v>0</v>
       </c>
-      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6965,7 +6488,6 @@
       <c r="K48" t="n">
         <v>541860.51</v>
       </c>
-      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6974,17 +6496,6 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
@@ -7032,7 +6543,6 @@
       <c r="AN48" t="n">
         <v>0</v>
       </c>
-      <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7095,7 +6605,6 @@
       <c r="K49" t="n">
         <v>648501.1</v>
       </c>
-      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7104,17 +6613,6 @@
       <c r="N49" t="n">
         <v>1</v>
       </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
@@ -7162,7 +6660,6 @@
       <c r="AN49" t="n">
         <v>0</v>
       </c>
-      <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7195,7 +6692,6 @@
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>Carmen NHS (SHS)</t>
@@ -7223,7 +6719,6 @@
       <c r="K50" t="n">
         <v>276511.45</v>
       </c>
-      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7232,17 +6727,6 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
@@ -7290,7 +6774,6 @@
       <c r="AN50" t="n">
         <v>0</v>
       </c>
-      <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7353,7 +6836,6 @@
       <c r="K51" t="n">
         <v>402027.94</v>
       </c>
-      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7362,17 +6844,6 @@
       <c r="N51" t="n">
         <v>1</v>
       </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
@@ -7420,7 +6891,6 @@
       <c r="AN51" t="n">
         <v>0</v>
       </c>
-      <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7453,7 +6923,6 @@
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>Carranglan NHS (SHS)</t>
@@ -7481,7 +6950,6 @@
       <c r="K52" t="n">
         <v>352136.59</v>
       </c>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7490,17 +6958,6 @@
       <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
@@ -7548,7 +7005,6 @@
       <c r="AN52" t="n">
         <v>0</v>
       </c>
-      <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7611,7 +7067,6 @@
       <c r="K53" t="n">
         <v>245855.26</v>
       </c>
-      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7620,17 +7075,6 @@
       <c r="N53" t="n">
         <v>1</v>
       </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
@@ -7678,7 +7122,6 @@
       <c r="AN53" t="n">
         <v>0</v>
       </c>
-      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7741,7 +7184,6 @@
       <c r="K54" t="n">
         <v>323471.35</v>
       </c>
-      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7750,17 +7192,6 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
@@ -7808,7 +7239,6 @@
       <c r="AN54" t="n">
         <v>0</v>
       </c>
-      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7871,7 +7301,6 @@
       <c r="K55" t="n">
         <v>197600.26</v>
       </c>
-      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7880,17 +7309,6 @@
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
@@ -7938,7 +7356,6 @@
       <c r="AN55" t="n">
         <v>0</v>
       </c>
-      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8001,7 +7418,6 @@
       <c r="K56" t="n">
         <v>267018.16</v>
       </c>
-      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8010,17 +7426,6 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
@@ -8068,7 +7473,6 @@
       <c r="AN56" t="n">
         <v>0</v>
       </c>
-      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8131,7 +7535,6 @@
       <c r="K57" t="n">
         <v>299957.65</v>
       </c>
-      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8140,17 +7543,6 @@
       <c r="N57" t="n">
         <v>1</v>
       </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
@@ -8198,7 +7590,6 @@
       <c r="AN57" t="n">
         <v>0</v>
       </c>
-      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8261,7 +7652,6 @@
       <c r="K58" t="n">
         <v>374333.36</v>
       </c>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8270,17 +7660,6 @@
       <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
@@ -8328,7 +7707,6 @@
       <c r="AN58" t="n">
         <v>0</v>
       </c>
-      <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8391,7 +7769,6 @@
       <c r="K59" t="n">
         <v>538124.67</v>
       </c>
-      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8400,17 +7777,6 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
@@ -8458,7 +7824,6 @@
       <c r="AN59" t="n">
         <v>0</v>
       </c>
-      <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8521,7 +7886,6 @@
       <c r="K60" t="n">
         <v>532712.46</v>
       </c>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8530,17 +7894,6 @@
       <c r="N60" t="n">
         <v>1</v>
       </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
@@ -8588,7 +7941,6 @@
       <c r="AN60" t="n">
         <v>0</v>
       </c>
-      <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8651,7 +8003,6 @@
       <c r="K61" t="n">
         <v>312976.08</v>
       </c>
-      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8660,17 +8011,6 @@
       <c r="N61" t="n">
         <v>1</v>
       </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
@@ -8718,7 +8058,6 @@
       <c r="AN61" t="n">
         <v>0</v>
       </c>
-      <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8751,7 +8090,6 @@
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>STA. BARBARA NATIONAL HS (SHS)</t>
@@ -8779,7 +8117,6 @@
       <c r="K62" t="n">
         <v>450566.73</v>
       </c>
-      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8788,17 +8125,6 @@
       <c r="N62" t="n">
         <v>1</v>
       </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
@@ -8846,7 +8172,6 @@
       <c r="AN62" t="n">
         <v>0</v>
       </c>
-      <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8909,7 +8234,6 @@
       <c r="K63" t="n">
         <v>325560.71</v>
       </c>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8918,17 +8242,6 @@
       <c r="N63" t="n">
         <v>1</v>
       </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
@@ -8976,7 +8289,6 @@
       <c r="AN63" t="n">
         <v>0</v>
       </c>
-      <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9039,7 +8351,6 @@
       <c r="K64" t="n">
         <v>452449.94</v>
       </c>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9048,17 +8359,6 @@
       <c r="N64" t="n">
         <v>1</v>
       </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
@@ -9106,7 +8406,6 @@
       <c r="AN64" t="n">
         <v>0</v>
       </c>
-      <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9169,7 +8468,6 @@
       <c r="K65" t="n">
         <v>384194.55</v>
       </c>
-      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9178,17 +8476,6 @@
       <c r="N65" t="n">
         <v>1</v>
       </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
@@ -9236,7 +8523,6 @@
       <c r="AN65" t="n">
         <v>0</v>
       </c>
-      <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9299,7 +8585,6 @@
       <c r="K66" t="n">
         <v>195151.4</v>
       </c>
-      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9308,17 +8593,6 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
@@ -9366,7 +8640,6 @@
       <c r="AN66" t="n">
         <v>0</v>
       </c>
-      <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9429,7 +8702,6 @@
       <c r="K67" t="n">
         <v>347681.19</v>
       </c>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9438,17 +8710,6 @@
       <c r="N67" t="n">
         <v>1</v>
       </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
@@ -9496,7 +8757,6 @@
       <c r="AN67" t="n">
         <v>0</v>
       </c>
-      <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9559,7 +8819,6 @@
       <c r="K68" t="n">
         <v>2077391.62</v>
       </c>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9568,17 +8827,6 @@
       <c r="N68" t="n">
         <v>1</v>
       </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
@@ -9626,7 +8874,6 @@
       <c r="AN68" t="n">
         <v>0</v>
       </c>
-      <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9689,7 +8936,6 @@
       <c r="K69" t="n">
         <v>2770962.62</v>
       </c>
-      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9698,17 +8944,6 @@
       <c r="N69" t="n">
         <v>1</v>
       </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
@@ -9756,7 +8991,6 @@
       <c r="AN69" t="n">
         <v>0</v>
       </c>
-      <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9819,7 +9053,6 @@
       <c r="K70" t="n">
         <v>529630.83</v>
       </c>
-      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9828,14 +9061,11 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster I)</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -9866,7 +9096,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
@@ -9914,7 +9143,6 @@
       <c r="AN70" t="n">
         <v>0</v>
       </c>
-      <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9977,7 +9205,6 @@
       <c r="K71" t="n">
         <v>359481.51</v>
       </c>
-      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9986,14 +9213,11 @@
       <c r="N71" t="n">
         <v>1</v>
       </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster I)</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -10024,7 +9248,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
@@ -10072,7 +9295,6 @@
       <c r="AN71" t="n">
         <v>0</v>
       </c>
-      <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10135,7 +9357,6 @@
       <c r="K72" t="n">
         <v>578540.8100000001</v>
       </c>
-      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10144,17 +9365,6 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
@@ -10202,7 +9412,6 @@
       <c r="AN72" t="n">
         <v>0</v>
       </c>
-      <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10265,7 +9474,6 @@
       <c r="K73" t="n">
         <v>555871.38</v>
       </c>
-      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10274,14 +9482,11 @@
       <c r="N73" t="n">
         <v>1</v>
       </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster I)</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -10312,7 +9517,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="n">
         <v>0</v>
       </c>
@@ -10360,7 +9564,6 @@
       <c r="AN73" t="n">
         <v>0</v>
       </c>
-      <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10423,7 +9626,6 @@
       <c r="K74" t="n">
         <v>238791.09</v>
       </c>
-      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10432,14 +9634,11 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster I)</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -10470,7 +9669,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="n">
         <v>0</v>
       </c>
@@ -10518,7 +9716,6 @@
       <c r="AN74" t="n">
         <v>0</v>
       </c>
-      <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10581,7 +9778,6 @@
       <c r="K75" t="n">
         <v>433078.49</v>
       </c>
-      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10590,14 +9786,11 @@
       <c r="N75" t="n">
         <v>1</v>
       </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster I)</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -10628,7 +9821,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="n">
         <v>0</v>
       </c>
@@ -10676,7 +9868,6 @@
       <c r="AN75" t="n">
         <v>0</v>
       </c>
-      <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10739,7 +9930,6 @@
       <c r="K76" t="n">
         <v>238791.09</v>
       </c>
-      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10748,14 +9938,11 @@
       <c r="N76" t="n">
         <v>1</v>
       </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster I)</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -10786,7 +9973,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="n">
         <v>0</v>
       </c>
@@ -10834,7 +10020,6 @@
       <c r="AN76" t="n">
         <v>0</v>
       </c>
-      <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10897,7 +10082,6 @@
       <c r="K77" t="n">
         <v>289720.92</v>
       </c>
-      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10906,14 +10090,11 @@
       <c r="N77" t="n">
         <v>1</v>
       </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster II)</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -10944,7 +10125,6 @@
           <t>L.A.V. CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="n">
         <v>0</v>
       </c>
@@ -10992,7 +10172,6 @@
       <c r="AN77" t="n">
         <v>0</v>
       </c>
-      <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11055,7 +10234,6 @@
       <c r="K78" t="n">
         <v>2901396.11</v>
       </c>
-      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11064,14 +10242,11 @@
       <c r="N78" t="n">
         <v>1</v>
       </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster II)</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -11102,7 +10277,6 @@
           <t>L.A.V. CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="n">
         <v>0</v>
       </c>
@@ -11150,7 +10324,6 @@
       <c r="AN78" t="n">
         <v>0</v>
       </c>
-      <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11213,7 +10386,6 @@
       <c r="K79" t="n">
         <v>787612.65</v>
       </c>
-      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11222,17 +10394,6 @@
       <c r="N79" t="n">
         <v>1</v>
       </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="n">
         <v>0</v>
       </c>
@@ -11280,7 +10441,6 @@
       <c r="AN79" t="n">
         <v>0</v>
       </c>
-      <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11343,7 +10503,6 @@
       <c r="K80" t="n">
         <v>813993.9</v>
       </c>
-      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11352,17 +10511,6 @@
       <c r="N80" t="n">
         <v>1</v>
       </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="n">
         <v>0</v>
       </c>
@@ -11410,7 +10558,6 @@
       <c r="AN80" t="n">
         <v>0</v>
       </c>
-      <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11473,7 +10620,6 @@
       <c r="K81" t="n">
         <v>229562.69</v>
       </c>
-      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11482,14 +10628,11 @@
       <c r="N81" t="n">
         <v>1</v>
       </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster II)</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -11520,7 +10663,6 @@
           <t>L.A.V. CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="n">
         <v>0</v>
       </c>
@@ -11568,7 +10710,6 @@
       <c r="AN81" t="n">
         <v>0</v>
       </c>
-      <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11601,7 +10742,6 @@
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>MAGUISGUIS IS</t>
@@ -11629,7 +10769,6 @@
       <c r="K82" t="n">
         <v>940096.27</v>
       </c>
-      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11638,14 +10777,11 @@
       <c r="N82" t="n">
         <v>1</v>
       </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster II)</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -11676,7 +10812,6 @@
           <t>L.A.V. CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="n">
         <v>0</v>
       </c>
@@ -11724,7 +10859,6 @@
       <c r="AN82" t="n">
         <v>0</v>
       </c>
-      <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11787,7 +10921,6 @@
       <c r="K83" t="n">
         <v>1979019.54</v>
       </c>
-      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11796,17 +10929,6 @@
       <c r="N83" t="n">
         <v>1</v>
       </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="n">
         <v>0</v>
       </c>
@@ -11854,7 +10976,6 @@
       <c r="AN83" t="n">
         <v>0</v>
       </c>
-      <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11917,7 +11038,6 @@
       <c r="K84" t="n">
         <v>302634.44</v>
       </c>
-      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11926,14 +11046,11 @@
       <c r="N84" t="n">
         <v>1</v>
       </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster II)</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -11964,7 +11081,6 @@
           <t>L.A.V. CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="n">
         <v>0</v>
       </c>
@@ -12012,7 +11128,6 @@
       <c r="AN84" t="n">
         <v>0</v>
       </c>
-      <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12075,7 +11190,6 @@
       <c r="K85" t="n">
         <v>1963474.05</v>
       </c>
-      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12084,17 +11198,6 @@
       <c r="N85" t="n">
         <v>1</v>
       </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="n">
         <v>0</v>
       </c>
@@ -12142,7 +11245,6 @@
       <c r="AN85" t="n">
         <v>0</v>
       </c>
-      <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12205,7 +11307,6 @@
       <c r="K86" t="n">
         <v>1790672.54</v>
       </c>
-      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12214,17 +11315,6 @@
       <c r="N86" t="n">
         <v>1</v>
       </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="n">
         <v>0</v>
       </c>
@@ -12272,7 +11362,6 @@
       <c r="AN86" t="n">
         <v>0</v>
       </c>
-      <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12335,7 +11424,6 @@
       <c r="K87" t="n">
         <v>782336.4</v>
       </c>
-      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12344,17 +11432,6 @@
       <c r="N87" t="n">
         <v>1</v>
       </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="n">
         <v>0</v>
       </c>
@@ -12402,7 +11479,6 @@
       <c r="AN87" t="n">
         <v>0</v>
       </c>
-      <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12465,7 +11541,6 @@
       <c r="K88" t="n">
         <v>782336.4</v>
       </c>
-      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12474,17 +11549,6 @@
       <c r="N88" t="n">
         <v>1</v>
       </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="n">
         <v>0</v>
       </c>
@@ -12532,7 +11596,6 @@
       <c r="AN88" t="n">
         <v>0</v>
       </c>
-      <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12595,7 +11658,6 @@
       <c r="K89" t="n">
         <v>2678122.02</v>
       </c>
-      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12604,17 +11666,6 @@
       <c r="N89" t="n">
         <v>1</v>
       </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="n">
         <v>0</v>
       </c>
@@ -12662,7 +11713,6 @@
       <c r="AN89" t="n">
         <v>0</v>
       </c>
-      <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12725,7 +11775,6 @@
       <c r="K90" t="n">
         <v>378399.48</v>
       </c>
-      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12734,17 +11783,6 @@
       <c r="N90" t="n">
         <v>1</v>
       </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="n">
         <v>0</v>
       </c>
@@ -12792,7 +11830,6 @@
       <c r="AN90" t="n">
         <v>0</v>
       </c>
-      <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12855,7 +11892,6 @@
       <c r="K91" t="n">
         <v>402537.56</v>
       </c>
-      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12864,14 +11900,11 @@
       <c r="N91" t="n">
         <v>1</v>
       </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -12902,7 +11935,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="n">
         <v>0</v>
       </c>
@@ -12950,7 +11982,6 @@
       <c r="AN91" t="n">
         <v>0</v>
       </c>
-      <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13013,7 +12044,6 @@
       <c r="K92" t="n">
         <v>2934885.85</v>
       </c>
-      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13022,14 +12052,11 @@
       <c r="N92" t="n">
         <v>1</v>
       </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -13060,7 +12087,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="n">
         <v>0</v>
       </c>
@@ -13108,7 +12134,6 @@
       <c r="AN92" t="n">
         <v>0</v>
       </c>
-      <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13171,7 +12196,6 @@
       <c r="K93" t="n">
         <v>347882.41</v>
       </c>
-      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13180,14 +12204,11 @@
       <c r="N93" t="n">
         <v>1</v>
       </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -13218,7 +12239,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="n">
         <v>0</v>
       </c>
@@ -13266,7 +12286,6 @@
       <c r="AN93" t="n">
         <v>0</v>
       </c>
-      <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13329,7 +12348,6 @@
       <c r="K94" t="n">
         <v>524075.44</v>
       </c>
-      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13338,17 +12356,6 @@
       <c r="N94" t="n">
         <v>1</v>
       </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="n">
         <v>0</v>
       </c>
@@ -13396,7 +12403,6 @@
       <c r="AN94" t="n">
         <v>0</v>
       </c>
-      <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13459,7 +12465,6 @@
       <c r="K95" t="n">
         <v>502782.07</v>
       </c>
-      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13468,17 +12473,6 @@
       <c r="N95" t="n">
         <v>1</v>
       </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="n">
         <v>0</v>
       </c>
@@ -13526,7 +12520,6 @@
       <c r="AN95" t="n">
         <v>0</v>
       </c>
-      <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13589,7 +12582,6 @@
       <c r="K96" t="n">
         <v>432186.19</v>
       </c>
-      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13598,17 +12590,6 @@
       <c r="N96" t="n">
         <v>1</v>
       </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="n">
         <v>0</v>
       </c>
@@ -13656,7 +12637,6 @@
       <c r="AN96" t="n">
         <v>0</v>
       </c>
-      <c r="AO96" t="inlineStr"/>
       <c r="AP96" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13719,7 +12699,6 @@
       <c r="K97" t="n">
         <v>320002.7</v>
       </c>
-      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13728,14 +12707,11 @@
       <c r="N97" t="n">
         <v>1</v>
       </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -13766,7 +12742,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="n">
         <v>0</v>
       </c>
@@ -13814,7 +12789,6 @@
       <c r="AN97" t="n">
         <v>0</v>
       </c>
-      <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13847,7 +12821,6 @@
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>TALTAL NHS</t>
@@ -13875,7 +12848,6 @@
       <c r="K98" t="n">
         <v>439552.69</v>
       </c>
-      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13884,14 +12856,11 @@
       <c r="N98" t="n">
         <v>1</v>
       </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -13922,7 +12891,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="n">
         <v>0</v>
       </c>
@@ -13970,7 +12938,6 @@
       <c r="AN98" t="n">
         <v>0</v>
       </c>
-      <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14033,7 +13000,6 @@
       <c r="K99" t="n">
         <v>347882.41</v>
       </c>
-      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14042,14 +13008,11 @@
       <c r="N99" t="n">
         <v>1</v>
       </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -14080,7 +13043,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="n">
         <v>0</v>
       </c>
@@ -14128,7 +13090,6 @@
       <c r="AN99" t="n">
         <v>0</v>
       </c>
-      <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14191,7 +13152,6 @@
       <c r="K100" t="n">
         <v>347882.41</v>
       </c>
-      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14200,14 +13160,11 @@
       <c r="N100" t="n">
         <v>1</v>
       </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -14238,7 +13195,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="n">
         <v>0</v>
       </c>
@@ -14286,7 +13242,6 @@
       <c r="AN100" t="n">
         <v>0</v>
       </c>
-      <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14349,7 +13304,6 @@
       <c r="K101" t="n">
         <v>391157.45</v>
       </c>
-      <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14358,14 +13312,11 @@
       <c r="N101" t="n">
         <v>1</v>
       </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster II)</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -14396,7 +13347,6 @@
           <t>L.A.V. CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="n">
         <v>0</v>
       </c>
@@ -14444,7 +13394,6 @@
       <c r="AN101" t="n">
         <v>0</v>
       </c>
-      <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14507,7 +13456,6 @@
       <c r="K102" t="n">
         <v>438055.75</v>
       </c>
-      <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14516,14 +13464,11 @@
       <c r="N102" t="n">
         <v>1</v>
       </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster II)</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -14554,7 +13499,6 @@
           <t>L.A.V. CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="n">
         <v>0</v>
       </c>
@@ -14602,7 +13546,6 @@
       <c r="AN102" t="n">
         <v>0</v>
       </c>
-      <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14665,7 +13608,6 @@
       <c r="K103" t="n">
         <v>771783.9</v>
       </c>
-      <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14674,17 +13616,6 @@
       <c r="N103" t="n">
         <v>1</v>
       </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="n">
         <v>0</v>
       </c>
@@ -14732,7 +13663,6 @@
       <c r="AN103" t="n">
         <v>0</v>
       </c>
-      <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14795,7 +13725,6 @@
       <c r="K104" t="n">
         <v>562157.84</v>
       </c>
-      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14804,17 +13733,6 @@
       <c r="N104" t="n">
         <v>1</v>
       </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="n">
         <v>0</v>
       </c>
@@ -14862,7 +13780,6 @@
       <c r="AN104" t="n">
         <v>0</v>
       </c>
-      <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14925,7 +13842,6 @@
       <c r="K105" t="n">
         <v>551263.58</v>
       </c>
-      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -14934,17 +13850,6 @@
       <c r="N105" t="n">
         <v>1</v>
       </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="n">
         <v>0</v>
       </c>
@@ -14992,7 +13897,6 @@
       <c r="AN105" t="n">
         <v>0</v>
       </c>
-      <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15055,7 +13959,6 @@
       <c r="K106" t="n">
         <v>976746.37</v>
       </c>
-      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15064,17 +13967,6 @@
       <c r="N106" t="n">
         <v>1</v>
       </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="n">
         <v>0</v>
       </c>
@@ -15122,7 +14014,6 @@
       <c r="AN106" t="n">
         <v>0</v>
       </c>
-      <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15155,7 +14046,6 @@
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>BOLITOC NHS</t>
@@ -15183,7 +14073,6 @@
       <c r="K107" t="n">
         <v>443158.94</v>
       </c>
-      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15192,14 +14081,11 @@
       <c r="N107" t="n">
         <v>1</v>
       </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -15230,7 +14116,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="n">
         <v>0</v>
       </c>
@@ -15278,7 +14163,6 @@
       <c r="AN107" t="n">
         <v>0</v>
       </c>
-      <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15341,7 +14225,6 @@
       <c r="K108" t="n">
         <v>455413.83</v>
       </c>
-      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15350,14 +14233,11 @@
       <c r="N108" t="n">
         <v>1</v>
       </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -15388,7 +14268,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="n">
         <v>0</v>
       </c>
@@ -15436,7 +14315,6 @@
       <c r="AN108" t="n">
         <v>0</v>
       </c>
-      <c r="AO108" t="inlineStr"/>
       <c r="AP108" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15469,7 +14347,6 @@
           <t>Zambales</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>LIPAY NHS</t>
@@ -15497,7 +14374,6 @@
       <c r="K109" t="n">
         <v>373296.29</v>
       </c>
-      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15506,14 +14382,11 @@
       <c r="N109" t="n">
         <v>1</v>
       </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -15544,7 +14417,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="n">
         <v>0</v>
       </c>
@@ -15592,7 +14464,6 @@
       <c r="AN109" t="n">
         <v>0</v>
       </c>
-      <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15655,7 +14526,6 @@
       <c r="K110" t="n">
         <v>294724.19</v>
       </c>
-      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15664,14 +14534,11 @@
       <c r="N110" t="n">
         <v>1</v>
       </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -15702,7 +14569,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="n">
         <v>0</v>
       </c>
@@ -15750,7 +14616,6 @@
       <c r="AN110" t="n">
         <v>0</v>
       </c>
-      <c r="AO110" t="inlineStr"/>
       <c r="AP110" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15813,7 +14678,6 @@
       <c r="K111" t="n">
         <v>323846.39</v>
       </c>
-      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15822,14 +14686,11 @@
       <c r="N111" t="n">
         <v>1</v>
       </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr">
         <is>
           <t>INFRA-2018-001 (Cluster III)</t>
         </is>
       </c>
-      <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr">
         <is>
           <t>March 26, 2018</t>
@@ -15860,7 +14721,6 @@
           <t>FBF INDUSTRIAL SALES AND SERVICES</t>
         </is>
       </c>
-      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="n">
         <v>0</v>
       </c>
@@ -15908,7 +14768,6 @@
       <c r="AN111" t="n">
         <v>0</v>
       </c>
-      <c r="AO111" t="inlineStr"/>
       <c r="AP111" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15973,7 +14832,6 @@
       <c r="K112" t="n">
         <v>173062.6</v>
       </c>
-      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15982,21 +14840,11 @@
       <c r="N112" t="n">
         <v>1</v>
       </c>
-      <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>December 8, 2019</t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="n">
         <v>0</v>
       </c>
@@ -16044,7 +14892,6 @@
       <c r="AN112" t="n">
         <v>0</v>
       </c>
-      <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16109,7 +14956,6 @@
       <c r="K113" t="n">
         <v>173062.6</v>
       </c>
-      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16118,21 +14964,11 @@
       <c r="N113" t="n">
         <v>1</v>
       </c>
-      <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
           <t>December 8, 2019</t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="n">
         <v>0</v>
       </c>
@@ -16180,7 +15016,6 @@
       <c r="AN113" t="n">
         <v>0</v>
       </c>
-      <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16245,7 +15080,6 @@
       <c r="K114" t="n">
         <v>173062.6</v>
       </c>
-      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16254,21 +15088,11 @@
       <c r="N114" t="n">
         <v>1</v>
       </c>
-      <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>December 8, 2019</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="n">
         <v>0</v>
       </c>
@@ -16316,7 +15140,6 @@
       <c r="AN114" t="n">
         <v>0</v>
       </c>
-      <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16381,7 +15204,6 @@
       <c r="K115" t="n">
         <v>173062.6</v>
       </c>
-      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16390,21 +15212,11 @@
       <c r="N115" t="n">
         <v>1</v>
       </c>
-      <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
           <t>December 8, 2019</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="n">
         <v>0</v>
       </c>
@@ -16452,7 +15264,6 @@
       <c r="AN115" t="n">
         <v>0</v>
       </c>
-      <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16517,7 +15328,6 @@
       <c r="K116" t="n">
         <v>173062.6</v>
       </c>
-      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16526,21 +15336,11 @@
       <c r="N116" t="n">
         <v>1</v>
       </c>
-      <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
           <t>December 8, 2019</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="n">
         <v>0</v>
       </c>
@@ -16588,7 +15388,6 @@
       <c r="AN116" t="n">
         <v>0</v>
       </c>
-      <c r="AO116" t="inlineStr"/>
       <c r="AP116" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16653,7 +15452,6 @@
       <c r="K117" t="n">
         <v>173062.6</v>
       </c>
-      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16662,21 +15460,11 @@
       <c r="N117" t="n">
         <v>1</v>
       </c>
-      <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
           <t>December 8, 2019</t>
         </is>
       </c>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="n">
         <v>0</v>
       </c>
@@ -16724,7 +15512,6 @@
       <c r="AN117" t="n">
         <v>0</v>
       </c>
-      <c r="AO117" t="inlineStr"/>
       <c r="AP117" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16781,11 +15568,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
         <v>4750801.05</v>
       </c>
-      <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16794,17 +15579,6 @@
       <c r="N118" t="n">
         <v>1</v>
       </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="n">
         <v>0</v>
       </c>
@@ -16852,7 +15626,6 @@
       <c r="AN118" t="n">
         <v>0</v>
       </c>
-      <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16917,7 +15690,6 @@
       <c r="K119" t="n">
         <v>1297834.37</v>
       </c>
-      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16926,17 +15698,6 @@
       <c r="N119" t="n">
         <v>1</v>
       </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="n">
         <v>0</v>
       </c>
@@ -16984,7 +15745,6 @@
       <c r="AN119" t="n">
         <v>0</v>
       </c>
-      <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17049,7 +15809,6 @@
       <c r="K120" t="n">
         <v>1007934.66</v>
       </c>
-      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17058,17 +15817,6 @@
       <c r="N120" t="n">
         <v>1</v>
       </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="n">
         <v>0</v>
       </c>
@@ -17116,7 +15864,6 @@
       <c r="AN120" t="n">
         <v>0</v>
       </c>
-      <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17181,7 +15928,6 @@
       <c r="K121" t="n">
         <v>1284158.14</v>
       </c>
-      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17190,17 +15936,6 @@
       <c r="N121" t="n">
         <v>1</v>
       </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="n">
         <v>0</v>
       </c>
@@ -17248,7 +15983,6 @@
       <c r="AN121" t="n">
         <v>0</v>
       </c>
-      <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17313,7 +16047,6 @@
       <c r="K122" t="n">
         <v>1229688.09</v>
       </c>
-      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17322,17 +16055,6 @@
       <c r="N122" t="n">
         <v>1</v>
       </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="n">
         <v>0</v>
       </c>
@@ -17380,7 +16102,6 @@
       <c r="AN122" t="n">
         <v>0</v>
       </c>
-      <c r="AO122" t="inlineStr"/>
       <c r="AP122" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17445,7 +16166,6 @@
       <c r="K123" t="n">
         <v>1284158.34</v>
       </c>
-      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17454,17 +16174,6 @@
       <c r="N123" t="n">
         <v>1</v>
       </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="n">
         <v>0</v>
       </c>
@@ -17512,7 +16221,6 @@
       <c r="AN123" t="n">
         <v>0</v>
       </c>
-      <c r="AO123" t="inlineStr"/>
       <c r="AP123" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17577,7 +16285,6 @@
       <c r="K124" t="n">
         <v>3303044.46</v>
       </c>
-      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17586,17 +16293,6 @@
       <c r="N124" t="n">
         <v>1</v>
       </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="n">
         <v>0</v>
       </c>
@@ -17644,7 +16340,6 @@
       <c r="AN124" t="n">
         <v>0</v>
       </c>
-      <c r="AO124" t="inlineStr"/>
       <c r="AP124" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17720,10 +16415,10 @@
       <c r="N125" t="n">
         <v>1</v>
       </c>
-      <c r="O125" s="2" t="n">
+      <c r="O125" s="3" t="n">
         <v>44148</v>
       </c>
-      <c r="P125" s="2" t="n">
+      <c r="P125" s="3" t="n">
         <v>44113</v>
       </c>
       <c r="Q125" t="inlineStr">
@@ -17736,19 +16431,19 @@
           <t>19-10-037</t>
         </is>
       </c>
-      <c r="S125" s="2" t="n">
+      <c r="S125" s="3" t="n">
         <v>43661</v>
       </c>
-      <c r="T125" s="2" t="n">
+      <c r="T125" s="3" t="n">
         <v>43669</v>
       </c>
-      <c r="U125" s="2" t="n">
+      <c r="U125" s="3" t="n">
         <v>43682</v>
       </c>
-      <c r="V125" s="2" t="n">
+      <c r="V125" s="3" t="n">
         <v>43704</v>
       </c>
-      <c r="W125" s="2" t="n">
+      <c r="W125" s="3" t="n">
         <v>43763</v>
       </c>
       <c r="X125" t="inlineStr">
@@ -17756,7 +16451,6 @@
           <t>EIRISH BUILDERS &amp; SUPPLY INC.</t>
         </is>
       </c>
-      <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="n">
         <v>0</v>
       </c>
@@ -17804,7 +16498,6 @@
       <c r="AN125" t="n">
         <v>0</v>
       </c>
-      <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17880,10 +16573,9 @@
       <c r="N126" t="n">
         <v>1</v>
       </c>
-      <c r="O126" s="2" t="n">
+      <c r="O126" s="3" t="n">
         <v>44148</v>
       </c>
-      <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr">
         <is>
           <t>19-08-029</t>
@@ -17894,19 +16586,19 @@
           <t>19-10-038</t>
         </is>
       </c>
-      <c r="S126" s="2" t="n">
+      <c r="S126" s="3" t="n">
         <v>43661</v>
       </c>
-      <c r="T126" s="2" t="n">
+      <c r="T126" s="3" t="n">
         <v>43669</v>
       </c>
-      <c r="U126" s="2" t="n">
+      <c r="U126" s="3" t="n">
         <v>43682</v>
       </c>
-      <c r="V126" s="2" t="n">
+      <c r="V126" s="3" t="n">
         <v>43704</v>
       </c>
-      <c r="W126" s="2" t="n">
+      <c r="W126" s="3" t="n">
         <v>43763</v>
       </c>
       <c r="X126" t="inlineStr">
@@ -17914,7 +16606,6 @@
           <t>ADIMRE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="n">
         <v>0</v>
       </c>
@@ -17962,7 +16653,6 @@
       <c r="AN126" t="n">
         <v>0</v>
       </c>
-      <c r="AO126" t="inlineStr"/>
       <c r="AP126" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18038,10 +16728,10 @@
       <c r="N127" t="n">
         <v>1</v>
       </c>
-      <c r="O127" s="2" t="n">
+      <c r="O127" s="3" t="n">
         <v>44148</v>
       </c>
-      <c r="P127" s="2" t="n">
+      <c r="P127" s="3" t="n">
         <v>43896</v>
       </c>
       <c r="Q127" t="inlineStr">
@@ -18054,19 +16744,19 @@
           <t>19-10-039</t>
         </is>
       </c>
-      <c r="S127" s="2" t="n">
+      <c r="S127" s="3" t="n">
         <v>43661</v>
       </c>
-      <c r="T127" s="2" t="n">
+      <c r="T127" s="3" t="n">
         <v>43669</v>
       </c>
-      <c r="U127" s="2" t="n">
+      <c r="U127" s="3" t="n">
         <v>43682</v>
       </c>
-      <c r="V127" s="2" t="n">
+      <c r="V127" s="3" t="n">
         <v>43704</v>
       </c>
-      <c r="W127" s="2" t="n">
+      <c r="W127" s="3" t="n">
         <v>43763</v>
       </c>
       <c r="X127" t="inlineStr">
@@ -18074,7 +16764,6 @@
           <t>EIRISH BUILDERS &amp; SUPPLY INC.</t>
         </is>
       </c>
-      <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="n">
         <v>0</v>
       </c>
@@ -18122,7 +16811,6 @@
       <c r="AN127" t="n">
         <v>0</v>
       </c>
-      <c r="AO127" t="inlineStr"/>
       <c r="AP127" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18198,10 +16886,10 @@
       <c r="N128" t="n">
         <v>1</v>
       </c>
-      <c r="O128" s="2" t="n">
+      <c r="O128" s="3" t="n">
         <v>44148</v>
       </c>
-      <c r="P128" s="2" t="n">
+      <c r="P128" s="3" t="n">
         <v>43896</v>
       </c>
       <c r="Q128" t="inlineStr">
@@ -18214,19 +16902,19 @@
           <t>19-10-040</t>
         </is>
       </c>
-      <c r="S128" s="2" t="n">
+      <c r="S128" s="3" t="n">
         <v>43661</v>
       </c>
-      <c r="T128" s="2" t="n">
+      <c r="T128" s="3" t="n">
         <v>43669</v>
       </c>
-      <c r="U128" s="2" t="n">
+      <c r="U128" s="3" t="n">
         <v>43682</v>
       </c>
-      <c r="V128" s="2" t="n">
+      <c r="V128" s="3" t="n">
         <v>43704</v>
       </c>
-      <c r="W128" s="2" t="n">
+      <c r="W128" s="3" t="n">
         <v>43763</v>
       </c>
       <c r="X128" t="inlineStr">
@@ -18234,7 +16922,6 @@
           <t>EIRISH BUILDERS &amp; SUPPLY INC.</t>
         </is>
       </c>
-      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="n">
         <v>0</v>
       </c>
@@ -18282,7 +16969,6 @@
       <c r="AN128" t="n">
         <v>0</v>
       </c>
-      <c r="AO128" t="inlineStr"/>
       <c r="AP128" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18339,11 +17025,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
         <v>1122771.63</v>
       </c>
-      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18352,17 +17036,6 @@
       <c r="N129" t="n">
         <v>1</v>
       </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="n">
         <v>0</v>
       </c>
@@ -18410,7 +17083,6 @@
       <c r="AN129" t="n">
         <v>0</v>
       </c>
-      <c r="AO129" t="inlineStr"/>
       <c r="AP129" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18475,7 +17147,6 @@
       <c r="K130" t="n">
         <v>186661.35</v>
       </c>
-      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18484,16 +17155,12 @@
       <c r="N130" t="n">
         <v>1</v>
       </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr">
         <is>
           <t>11/27-12/4/2020</t>
         </is>
       </c>
-      <c r="T130" s="2" t="n">
+      <c r="T130" s="3" t="n">
         <v>43933</v>
       </c>
       <c r="U130" t="inlineStr">
@@ -18516,7 +17183,6 @@
           <t>SAMENARA CONSTRACTION &amp; TRADING</t>
         </is>
       </c>
-      <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="n">
         <v>0</v>
       </c>
@@ -18564,7 +17230,6 @@
       <c r="AN130" t="n">
         <v>0</v>
       </c>
-      <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18629,7 +17294,6 @@
       <c r="K131" t="n">
         <v>483647.78</v>
       </c>
-      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18638,16 +17302,12 @@
       <c r="N131" t="n">
         <v>1</v>
       </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr">
         <is>
           <t>11/27-12/4/2020</t>
         </is>
       </c>
-      <c r="T131" s="2" t="n">
+      <c r="T131" s="3" t="n">
         <v>43933</v>
       </c>
       <c r="U131" t="inlineStr">
@@ -18670,7 +17330,6 @@
           <t>SAMENARA CONSTRACTION &amp; TRADING</t>
         </is>
       </c>
-      <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="n">
         <v>0</v>
       </c>
@@ -18718,7 +17377,6 @@
       <c r="AN131" t="n">
         <v>0</v>
       </c>
-      <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18783,7 +17441,6 @@
       <c r="K132" t="n">
         <v>911338.59</v>
       </c>
-      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18792,17 +17449,6 @@
       <c r="N132" t="n">
         <v>1</v>
       </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="n">
         <v>0</v>
       </c>
@@ -18850,7 +17496,6 @@
       <c r="AN132" t="n">
         <v>0</v>
       </c>
-      <c r="AO132" t="inlineStr"/>
       <c r="AP132" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18915,7 +17560,6 @@
       <c r="K133" t="n">
         <v>1445828.67</v>
       </c>
-      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18924,17 +17568,6 @@
       <c r="N133" t="n">
         <v>1</v>
       </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="n">
         <v>0</v>
       </c>
@@ -18982,7 +17615,6 @@
       <c r="AN133" t="n">
         <v>0</v>
       </c>
-      <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19047,7 +17679,6 @@
       <c r="K134" t="n">
         <v>6138939</v>
       </c>
-      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -19056,17 +17687,6 @@
       <c r="N134" t="n">
         <v>0</v>
       </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="n">
         <v>1</v>
       </c>
@@ -19114,8 +17734,6 @@
       <c r="AN134" t="n">
         <v>0</v>
       </c>
-      <c r="AO134" t="inlineStr"/>
-      <c r="AP134" t="inlineStr"/>
       <c r="AQ134" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -19167,9 +17785,6 @@
           <t>SOLAR PANEL</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -19178,17 +17793,6 @@
       <c r="N135" t="n">
         <v>0</v>
       </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="n">
         <v>1</v>
       </c>
@@ -19236,8 +17840,6 @@
       <c r="AN135" t="n">
         <v>0</v>
       </c>
-      <c r="AO135" t="inlineStr"/>
-      <c r="AP135" t="inlineStr"/>
       <c r="AQ135" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -19297,7 +17899,6 @@
       <c r="K136" t="n">
         <v>6138939</v>
       </c>
-      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -19306,17 +17907,6 @@
       <c r="N136" t="n">
         <v>0</v>
       </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="n">
         <v>1</v>
       </c>
@@ -19364,8 +17954,6 @@
       <c r="AN136" t="n">
         <v>0</v>
       </c>
-      <c r="AO136" t="inlineStr"/>
-      <c r="AP136" t="inlineStr"/>
       <c r="AQ136" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -19425,7 +18013,6 @@
       <c r="K137" t="n">
         <v>6138939</v>
       </c>
-      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -19434,17 +18021,6 @@
       <c r="N137" t="n">
         <v>0</v>
       </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="n">
         <v>1</v>
       </c>
@@ -19492,8 +18068,6 @@
       <c r="AN137" t="n">
         <v>0</v>
       </c>
-      <c r="AO137" t="inlineStr"/>
-      <c r="AP137" t="inlineStr"/>
       <c r="AQ137" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -19545,9 +18119,6 @@
           <t>SOLAR PANEL</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -19556,17 +18127,6 @@
       <c r="N138" t="n">
         <v>0</v>
       </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="n">
         <v>1</v>
       </c>
@@ -19614,8 +18174,6 @@
       <c r="AN138" t="n">
         <v>0</v>
       </c>
-      <c r="AO138" t="inlineStr"/>
-      <c r="AP138" t="inlineStr"/>
       <c r="AQ138" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -19675,7 +18233,6 @@
       <c r="K139" t="n">
         <v>6138939</v>
       </c>
-      <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -19684,17 +18241,6 @@
       <c r="N139" t="n">
         <v>0</v>
       </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="n">
         <v>1</v>
       </c>
@@ -19742,8 +18288,6 @@
       <c r="AN139" t="n">
         <v>0</v>
       </c>
-      <c r="AO139" t="inlineStr"/>
-      <c r="AP139" t="inlineStr"/>
       <c r="AQ139" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -19803,7 +18347,6 @@
       <c r="K140" t="n">
         <v>6138939</v>
       </c>
-      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -19812,17 +18355,6 @@
       <c r="N140" t="n">
         <v>0</v>
       </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="n">
         <v>1</v>
       </c>
@@ -19870,8 +18402,6 @@
       <c r="AN140" t="n">
         <v>0</v>
       </c>
-      <c r="AO140" t="inlineStr"/>
-      <c r="AP140" t="inlineStr"/>
       <c r="AQ140" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -19931,7 +18461,6 @@
       <c r="K141" t="n">
         <v>6138939</v>
       </c>
-      <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -19940,17 +18469,6 @@
       <c r="N141" t="n">
         <v>0</v>
       </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="n">
         <v>1</v>
       </c>
@@ -19998,8 +18516,6 @@
       <c r="AN141" t="n">
         <v>0</v>
       </c>
-      <c r="AO141" t="inlineStr"/>
-      <c r="AP141" t="inlineStr"/>
       <c r="AQ141" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -20059,7 +18575,6 @@
       <c r="K142" t="n">
         <v>6138939</v>
       </c>
-      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -20068,17 +18583,6 @@
       <c r="N142" t="n">
         <v>0</v>
       </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="n">
         <v>1</v>
       </c>
@@ -20126,8 +18630,6 @@
       <c r="AN142" t="n">
         <v>0</v>
       </c>
-      <c r="AO142" t="inlineStr"/>
-      <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -20179,9 +18681,6 @@
           <t>SOLAR PANEL</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -20190,17 +18689,6 @@
       <c r="N143" t="n">
         <v>0</v>
       </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="n">
         <v>1</v>
       </c>
@@ -20248,8 +18736,6 @@
       <c r="AN143" t="n">
         <v>0</v>
       </c>
-      <c r="AO143" t="inlineStr"/>
-      <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -20309,7 +18795,6 @@
       <c r="K144" t="n">
         <v>6138939</v>
       </c>
-      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -20318,17 +18803,6 @@
       <c r="N144" t="n">
         <v>0</v>
       </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="n">
         <v>1</v>
       </c>
@@ -20376,8 +18850,6 @@
       <c r="AN144" t="n">
         <v>0</v>
       </c>
-      <c r="AO144" t="inlineStr"/>
-      <c r="AP144" t="inlineStr"/>
       <c r="AQ144" t="inlineStr">
         <is>
           <t>SOLAR</t>
@@ -20429,7 +18901,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
         <v>2754098.39</v>
       </c>
@@ -20444,10 +18915,10 @@
       <c r="N145" t="n">
         <v>1</v>
       </c>
-      <c r="O145" s="2" t="n">
+      <c r="O145" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="P145" s="2" t="n">
+      <c r="P145" s="3" t="n">
         <v>44187</v>
       </c>
       <c r="Q145" t="inlineStr">
@@ -20455,20 +18926,18 @@
           <t>Elect 2020-RIII-Aurora-001</t>
         </is>
       </c>
-      <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr">
         <is>
           <t>NOV 6-22, 2019</t>
         </is>
       </c>
-      <c r="T145" s="2" t="n">
+      <c r="T145" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="U145" s="2" t="n">
+      <c r="U145" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" s="2" t="n">
+      <c r="W145" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="X145" t="inlineStr">
@@ -20476,7 +18945,6 @@
           <t>VB DONATO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="n">
         <v>0</v>
       </c>
@@ -20524,7 +18992,6 @@
       <c r="AN145" t="n">
         <v>0</v>
       </c>
-      <c r="AO145" t="inlineStr"/>
       <c r="AP145" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20581,7 +19048,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
         <v>2747466.86</v>
       </c>
@@ -20596,10 +19062,10 @@
       <c r="N146" t="n">
         <v>1</v>
       </c>
-      <c r="O146" s="2" t="n">
+      <c r="O146" s="3" t="n">
         <v>44164</v>
       </c>
-      <c r="P146" s="2" t="n">
+      <c r="P146" s="3" t="n">
         <v>44124</v>
       </c>
       <c r="Q146" t="inlineStr">
@@ -20607,20 +19073,18 @@
           <t>Elect 2020-RIII-Aurora-014</t>
         </is>
       </c>
-      <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr">
         <is>
           <t>NOV 6-22, 2019</t>
         </is>
       </c>
-      <c r="T146" s="2" t="n">
+      <c r="T146" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="U146" s="2" t="n">
+      <c r="U146" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" s="2" t="n">
+      <c r="W146" s="3" t="n">
         <v>44067</v>
       </c>
       <c r="X146" t="inlineStr">
@@ -20628,7 +19092,6 @@
           <t>MARVELOUS QUEJADA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="n">
         <v>0</v>
       </c>
@@ -20676,7 +19139,6 @@
       <c r="AN146" t="n">
         <v>0</v>
       </c>
-      <c r="AO146" t="inlineStr"/>
       <c r="AP146" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20733,7 +19195,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
         <v>2814470.95</v>
       </c>
@@ -20748,10 +19209,10 @@
       <c r="N147" t="n">
         <v>1</v>
       </c>
-      <c r="O147" s="2" t="n">
+      <c r="O147" s="3" t="n">
         <v>44164</v>
       </c>
-      <c r="P147" s="2" t="n">
+      <c r="P147" s="3" t="n">
         <v>44124</v>
       </c>
       <c r="Q147" t="inlineStr">
@@ -20759,20 +19220,18 @@
           <t>Elect 2020-RIII-Aurora-017</t>
         </is>
       </c>
-      <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr">
         <is>
           <t>NOV 6-22, 2019</t>
         </is>
       </c>
-      <c r="T147" s="2" t="n">
+      <c r="T147" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="U147" s="2" t="n">
+      <c r="U147" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" s="2" t="n">
+      <c r="W147" s="3" t="n">
         <v>44067</v>
       </c>
       <c r="X147" t="inlineStr">
@@ -20780,7 +19239,6 @@
           <t>FNR BUILDERS &amp; SONS SUPPLY INC.</t>
         </is>
       </c>
-      <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="n">
         <v>0</v>
       </c>
@@ -20828,7 +19286,6 @@
       <c r="AN147" t="n">
         <v>0</v>
       </c>
-      <c r="AO147" t="inlineStr"/>
       <c r="AP147" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20885,7 +19342,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
         <v>2747466.86</v>
       </c>
@@ -20900,10 +19356,10 @@
       <c r="N148" t="n">
         <v>1</v>
       </c>
-      <c r="O148" s="2" t="n">
+      <c r="O148" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="P148" s="2" t="n">
+      <c r="P148" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="Q148" t="inlineStr">
@@ -20911,20 +19367,18 @@
           <t>Elect 2020-RIII-Aurora-015</t>
         </is>
       </c>
-      <c r="R148" t="inlineStr"/>
       <c r="S148" t="inlineStr">
         <is>
           <t>NOV 6-22, 2019</t>
         </is>
       </c>
-      <c r="T148" s="2" t="n">
+      <c r="T148" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="U148" s="2" t="n">
+      <c r="U148" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="V148" t="inlineStr"/>
-      <c r="W148" s="2" t="n">
+      <c r="W148" s="3" t="n">
         <v>44067</v>
       </c>
       <c r="X148" t="inlineStr">
@@ -20932,7 +19386,6 @@
           <t>ADROIT CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="n">
         <v>0</v>
       </c>
@@ -20980,7 +19433,6 @@
       <c r="AN148" t="n">
         <v>0</v>
       </c>
-      <c r="AO148" t="inlineStr"/>
       <c r="AP148" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21037,7 +19489,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
         <v>2810360.13</v>
       </c>
@@ -21052,10 +19503,10 @@
       <c r="N149" t="n">
         <v>1</v>
       </c>
-      <c r="O149" s="2" t="n">
+      <c r="O149" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="P149" s="2" t="n">
+      <c r="P149" s="3" t="n">
         <v>44187</v>
       </c>
       <c r="Q149" t="inlineStr">
@@ -21063,20 +19514,18 @@
           <t>Elect 2020-RIII-Aurora-002</t>
         </is>
       </c>
-      <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr">
         <is>
           <t>MAY 18-JUNE 8, 2020</t>
         </is>
       </c>
-      <c r="T149" s="2" t="n">
+      <c r="T149" s="3" t="n">
         <v>43990</v>
       </c>
-      <c r="U149" s="2" t="n">
+      <c r="U149" s="3" t="n">
         <v>43990</v>
       </c>
-      <c r="V149" t="inlineStr"/>
-      <c r="W149" s="2" t="n">
+      <c r="W149" s="3" t="n">
         <v>44134</v>
       </c>
       <c r="X149" t="inlineStr">
@@ -21084,7 +19533,6 @@
           <t>VB DONATO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="n">
         <v>0</v>
       </c>
@@ -21132,7 +19580,6 @@
       <c r="AN149" t="n">
         <v>0</v>
       </c>
-      <c r="AO149" t="inlineStr"/>
       <c r="AP149" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21189,7 +19636,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
         <v>2810360.13</v>
       </c>
@@ -21204,10 +19650,10 @@
       <c r="N150" t="n">
         <v>1</v>
       </c>
-      <c r="O150" s="2" t="n">
+      <c r="O150" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="P150" s="2" t="n">
+      <c r="P150" s="3" t="n">
         <v>44187</v>
       </c>
       <c r="Q150" t="inlineStr">
@@ -21215,20 +19661,18 @@
           <t>Elect 2020-RIII-Aurora-003</t>
         </is>
       </c>
-      <c r="R150" t="inlineStr"/>
       <c r="S150" t="inlineStr">
         <is>
           <t>NOV 6-22, 2019</t>
         </is>
       </c>
-      <c r="T150" s="2" t="n">
+      <c r="T150" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="U150" s="2" t="n">
+      <c r="U150" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="V150" t="inlineStr"/>
-      <c r="W150" s="2" t="n">
+      <c r="W150" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="X150" t="inlineStr">
@@ -21236,7 +19680,6 @@
           <t>VB DONATO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="n">
         <v>0</v>
       </c>
@@ -21284,7 +19727,6 @@
       <c r="AN150" t="n">
         <v>0</v>
       </c>
-      <c r="AO150" t="inlineStr"/>
       <c r="AP150" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21341,7 +19783,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
         <v>4449330.67</v>
       </c>
@@ -21356,10 +19797,10 @@
       <c r="N151" t="n">
         <v>1</v>
       </c>
-      <c r="O151" s="2" t="n">
+      <c r="O151" s="3" t="n">
         <v>44217</v>
       </c>
-      <c r="P151" s="2" t="n">
+      <c r="P151" s="3" t="n">
         <v>44187</v>
       </c>
       <c r="Q151" t="inlineStr">
@@ -21367,20 +19808,18 @@
           <t>Elect 2020-RIII-Aurora-008</t>
         </is>
       </c>
-      <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr">
         <is>
           <t>NOV 6-22, 2019</t>
         </is>
       </c>
-      <c r="T151" s="2" t="n">
+      <c r="T151" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="U151" s="2" t="n">
+      <c r="U151" s="3" t="n">
         <v>43792</v>
       </c>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" s="2" t="n">
+      <c r="W151" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="X151" t="inlineStr">
@@ -21388,7 +19827,6 @@
           <t>VB DONATO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="n">
         <v>0</v>
       </c>
@@ -21436,7 +19874,6 @@
       <c r="AN151" t="n">
         <v>0</v>
       </c>
-      <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21493,11 +19930,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
         <v>3532711.81</v>
       </c>
-      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21506,21 +19941,11 @@
       <c r="N152" t="n">
         <v>1</v>
       </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Balanga City-002</t>
         </is>
       </c>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="n">
         <v>0</v>
       </c>
@@ -21568,7 +19993,6 @@
       <c r="AN152" t="n">
         <v>0</v>
       </c>
-      <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21625,11 +20049,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
         <v>3209203.21</v>
       </c>
-      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21638,21 +20060,11 @@
       <c r="N153" t="n">
         <v>1</v>
       </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Balanga City-003</t>
         </is>
       </c>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
-      <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="n">
         <v>0</v>
       </c>
@@ -21700,7 +20112,6 @@
       <c r="AN153" t="n">
         <v>0</v>
       </c>
-      <c r="AO153" t="inlineStr"/>
       <c r="AP153" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21757,7 +20168,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
         <v>2278518.41</v>
       </c>
@@ -21787,7 +20197,6 @@
           <t>Elec2020-RIII-Bataan-022</t>
         </is>
       </c>
-      <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr">
         <is>
           <t>Nov. 19, 2019-Dec. 3, 2019</t>
@@ -21818,7 +20227,6 @@
           <t>BQA CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="n">
         <v>0</v>
       </c>
@@ -21866,7 +20274,6 @@
       <c r="AN154" t="n">
         <v>0</v>
       </c>
-      <c r="AO154" t="inlineStr"/>
       <c r="AP154" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21923,7 +20330,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
         <v>4192535.54</v>
       </c>
@@ -21953,7 +20359,6 @@
           <t>Elec2020-RIII-Bataan-010</t>
         </is>
       </c>
-      <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr">
         <is>
           <t>Nov. 19, 2019-Dec. 3, 2019</t>
@@ -21984,7 +20389,6 @@
           <t>FBF INDUSTRIAL SALES &amp; SERVICES</t>
         </is>
       </c>
-      <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="n">
         <v>0</v>
       </c>
@@ -22032,7 +20436,6 @@
       <c r="AN155" t="n">
         <v>0</v>
       </c>
-      <c r="AO155" t="inlineStr"/>
       <c r="AP155" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22089,7 +20492,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
         <v>2311861.84</v>
       </c>
@@ -22119,7 +20521,6 @@
           <t>Elec2020-RIII-Bataan-011</t>
         </is>
       </c>
-      <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr">
         <is>
           <t>Nov. 19, 2019-Dec. 3, 2019</t>
@@ -22150,7 +20551,6 @@
           <t>FBF INDUSTRIAL SALES &amp; SERVICES</t>
         </is>
       </c>
-      <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="n">
         <v>0</v>
       </c>
@@ -22198,7 +20598,6 @@
       <c r="AN156" t="n">
         <v>0</v>
       </c>
-      <c r="AO156" t="inlineStr"/>
       <c r="AP156" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22255,7 +20654,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
         <v>2327471.15</v>
       </c>
@@ -22285,7 +20683,6 @@
           <t>Elec2020-RIII-Bataan-007</t>
         </is>
       </c>
-      <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr">
         <is>
           <t>Nov. 19, 2019-Dec. 3, 2019</t>
@@ -22316,7 +20713,6 @@
           <t>MECON SYSTEM SERVICE AND MAINTENANCE</t>
         </is>
       </c>
-      <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="n">
         <v>0</v>
       </c>
@@ -22364,7 +20760,6 @@
       <c r="AN157" t="n">
         <v>0</v>
       </c>
-      <c r="AO157" t="inlineStr"/>
       <c r="AP157" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22421,7 +20816,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
         <v>3066886.3</v>
       </c>
@@ -22451,7 +20845,6 @@
           <t>Elec2020-RIII-Bataan-012</t>
         </is>
       </c>
-      <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr">
         <is>
           <t>Nov. 19, 2019-Dec. 3, 2019</t>
@@ -22482,7 +20875,6 @@
           <t>MECON SYSTEM SERVICE AND MAINTENANCE</t>
         </is>
       </c>
-      <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="n">
         <v>0</v>
       </c>
@@ -22530,7 +20922,6 @@
       <c r="AN158" t="n">
         <v>0</v>
       </c>
-      <c r="AO158" t="inlineStr"/>
       <c r="AP158" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22587,7 +20978,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
         <v>4671888.25</v>
       </c>
@@ -22617,7 +21007,6 @@
           <t>Elec2020-RIII-Bataan-014</t>
         </is>
       </c>
-      <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr">
         <is>
           <t>Nov. 19, 2019-Dec. 3, 2019</t>
@@ -22648,7 +21037,6 @@
           <t>FBF INDUSTRIAL SALES &amp; SERVICES</t>
         </is>
       </c>
-      <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="n">
         <v>0</v>
       </c>
@@ -22696,7 +21084,6 @@
       <c r="AN159" t="n">
         <v>0</v>
       </c>
-      <c r="AO159" t="inlineStr"/>
       <c r="AP159" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22753,7 +21140,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
         <v>1456968.28</v>
       </c>
@@ -22783,7 +21169,6 @@
           <t>Elec2020-RIII-Bataan-003</t>
         </is>
       </c>
-      <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr">
         <is>
           <t>Nov. 19, 2019-Dec. 3, 2019</t>
@@ -22814,7 +21199,6 @@
           <t>FBF INDUSTRIAL SALES &amp; SERVICES</t>
         </is>
       </c>
-      <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="n">
         <v>0</v>
       </c>
@@ -22862,7 +21246,6 @@
       <c r="AN160" t="n">
         <v>0</v>
       </c>
-      <c r="AO160" t="inlineStr"/>
       <c r="AP160" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22919,7 +21302,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
         <v>562626.67</v>
       </c>
@@ -22939,13 +21321,11 @@
           <t>October, 2020</t>
         </is>
       </c>
-      <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Bataan-005</t>
         </is>
       </c>
-      <c r="R161" t="inlineStr"/>
       <c r="S161" t="inlineStr">
         <is>
           <t>June , 2020</t>
@@ -22971,8 +21351,6 @@
           <t>August , 2020</t>
         </is>
       </c>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="n">
         <v>0</v>
       </c>
@@ -23020,7 +21398,6 @@
       <c r="AN161" t="n">
         <v>0</v>
       </c>
-      <c r="AO161" t="inlineStr"/>
       <c r="AP161" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23077,7 +21454,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
         <v>1401805.24</v>
       </c>
@@ -23107,7 +21483,6 @@
           <t>Elec2020-RIII-Bataan-021</t>
         </is>
       </c>
-      <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr">
         <is>
           <t>Nov. 19, 2019-Dec. 3, 2019</t>
@@ -23138,7 +21513,6 @@
           <t>MECON SYSTEM SERVICE AND MAINTENANCE</t>
         </is>
       </c>
-      <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="n">
         <v>0</v>
       </c>
@@ -23186,7 +21560,6 @@
       <c r="AN162" t="n">
         <v>0</v>
       </c>
-      <c r="AO162" t="inlineStr"/>
       <c r="AP162" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23243,7 +21616,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
         <v>2183855.55</v>
       </c>
@@ -23273,7 +21645,6 @@
           <t>Elec2020-RIII-Bataan-002</t>
         </is>
       </c>
-      <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr">
         <is>
           <t>Nov. 19, 2019-Dec. 3, 2019</t>
@@ -23304,7 +21675,6 @@
           <t>BQA CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="n">
         <v>0</v>
       </c>
@@ -23352,7 +21722,6 @@
       <c r="AN163" t="n">
         <v>0</v>
       </c>
-      <c r="AO163" t="inlineStr"/>
       <c r="AP163" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23409,7 +21778,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
         <v>6750794.78</v>
       </c>
@@ -23429,13 +21797,11 @@
           <t>December, 2020</t>
         </is>
       </c>
-      <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Bulacan-003</t>
         </is>
       </c>
-      <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr">
         <is>
           <t>June , 2020</t>
@@ -23466,7 +21832,6 @@
           <t>EIRISH BUILDERS</t>
         </is>
       </c>
-      <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="n">
         <v>0</v>
       </c>
@@ -23514,7 +21879,6 @@
       <c r="AN164" t="n">
         <v>0</v>
       </c>
-      <c r="AO164" t="inlineStr"/>
       <c r="AP164" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23571,7 +21935,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
         <v>6186616.21</v>
       </c>
@@ -23586,29 +21949,27 @@
       <c r="N165" t="n">
         <v>1</v>
       </c>
-      <c r="O165" s="2" t="n">
+      <c r="O165" s="3" t="n">
         <v>44397</v>
       </c>
-      <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Bulacan-001</t>
         </is>
       </c>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" s="2" t="n">
+      <c r="S165" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="T165" s="2" t="n">
+      <c r="T165" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="U165" s="2" t="n">
+      <c r="U165" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="V165" s="2" t="n">
+      <c r="V165" s="3" t="n">
         <v>43851</v>
       </c>
-      <c r="W165" s="2" t="n">
+      <c r="W165" s="3" t="n">
         <v>44113</v>
       </c>
       <c r="X165" t="inlineStr">
@@ -23616,7 +21977,6 @@
           <t>Eirish Builders &amp; Supply Inc.</t>
         </is>
       </c>
-      <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="n">
         <v>0</v>
       </c>
@@ -23664,7 +22024,6 @@
       <c r="AN165" t="n">
         <v>0</v>
       </c>
-      <c r="AO165" t="inlineStr"/>
       <c r="AP165" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23721,7 +22080,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
         <v>5695225.24</v>
       </c>
@@ -23736,29 +22094,27 @@
       <c r="N166" t="n">
         <v>1</v>
       </c>
-      <c r="O166" s="2" t="n">
+      <c r="O166" s="3" t="n">
         <v>44397</v>
       </c>
-      <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Bulacan-006</t>
         </is>
       </c>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" s="2" t="n">
+      <c r="S166" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="T166" s="2" t="n">
+      <c r="T166" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="U166" s="2" t="n">
+      <c r="U166" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="V166" s="2" t="n">
+      <c r="V166" s="3" t="n">
         <v>43851</v>
       </c>
-      <c r="W166" s="2" t="n">
+      <c r="W166" s="3" t="n">
         <v>44113</v>
       </c>
       <c r="X166" t="inlineStr">
@@ -23766,7 +22122,6 @@
           <t>Eirish Builders &amp; Supply Inc.</t>
         </is>
       </c>
-      <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="n">
         <v>0</v>
       </c>
@@ -23814,7 +22169,6 @@
       <c r="AN166" t="n">
         <v>0</v>
       </c>
-      <c r="AO166" t="inlineStr"/>
       <c r="AP166" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23871,7 +22225,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
         <v>6527480.37</v>
       </c>
@@ -23886,29 +22239,27 @@
       <c r="N167" t="n">
         <v>1</v>
       </c>
-      <c r="O167" s="2" t="n">
+      <c r="O167" s="3" t="n">
         <v>44397</v>
       </c>
-      <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Bulacan-002</t>
         </is>
       </c>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" s="2" t="n">
+      <c r="S167" s="3" t="n">
         <v>43803</v>
       </c>
-      <c r="T167" s="2" t="n">
+      <c r="T167" s="3" t="n">
         <v>43810</v>
       </c>
-      <c r="U167" s="2" t="n">
+      <c r="U167" s="3" t="n">
         <v>43822</v>
       </c>
-      <c r="V167" s="2" t="n">
+      <c r="V167" s="3" t="n">
         <v>43851</v>
       </c>
-      <c r="W167" s="2" t="n">
+      <c r="W167" s="3" t="n">
         <v>44113</v>
       </c>
       <c r="X167" t="inlineStr">
@@ -23916,7 +22267,6 @@
           <t>Eirish Builders &amp; Supply Inc.</t>
         </is>
       </c>
-      <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="n">
         <v>0</v>
       </c>
@@ -23964,7 +22314,6 @@
       <c r="AN167" t="n">
         <v>0</v>
       </c>
-      <c r="AO167" t="inlineStr"/>
       <c r="AP167" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24021,7 +22370,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
         <v>326950.41</v>
       </c>
@@ -24036,10 +22384,10 @@
       <c r="N168" t="n">
         <v>1</v>
       </c>
-      <c r="O168" s="2" t="n">
+      <c r="O168" s="3" t="n">
         <v>43852</v>
       </c>
-      <c r="P168" s="2" t="n">
+      <c r="P168" s="3" t="n">
         <v>43852</v>
       </c>
       <c r="Q168" t="inlineStr">
@@ -24047,7 +22395,6 @@
           <t>Elec2020-RIII-GapanCity-001</t>
         </is>
       </c>
-      <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr">
         <is>
           <t>November 13, 2019</t>
@@ -24078,7 +22425,6 @@
           <t>JOYNIELTIN CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="n">
         <v>0</v>
       </c>
@@ -24126,7 +22472,6 @@
       <c r="AN168" t="n">
         <v>0</v>
       </c>
-      <c r="AO168" t="inlineStr"/>
       <c r="AP168" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24183,7 +22528,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
         <v>1420751.96</v>
       </c>
@@ -24198,29 +22542,27 @@
       <c r="N169" t="n">
         <v>1</v>
       </c>
-      <c r="O169" s="2" t="n">
+      <c r="O169" s="3" t="n">
         <v>44090</v>
       </c>
-      <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Mabalacat City-002</t>
         </is>
       </c>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" s="2" t="n">
+      <c r="S169" s="3" t="n">
         <v>43788</v>
       </c>
-      <c r="T169" s="2" t="n">
+      <c r="T169" s="3" t="n">
         <v>43795</v>
       </c>
-      <c r="U169" s="2" t="n">
+      <c r="U169" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="V169" s="2" t="n">
+      <c r="V169" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="W169" s="2" t="n">
+      <c r="W169" s="3" t="n">
         <v>44046</v>
       </c>
       <c r="X169" t="inlineStr">
@@ -24228,7 +22570,6 @@
           <t>R.S. DELOS REYES ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="n">
         <v>0</v>
       </c>
@@ -24276,7 +22617,6 @@
       <c r="AN169" t="n">
         <v>0</v>
       </c>
-      <c r="AO169" t="inlineStr"/>
       <c r="AP169" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24333,11 +22673,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
         <v>1024241.55</v>
       </c>
-      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24346,21 +22684,11 @@
       <c r="N170" t="n">
         <v>1</v>
       </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Mabalacat City-007</t>
         </is>
       </c>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr"/>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="n">
         <v>0</v>
       </c>
@@ -24397,14 +22725,12 @@
       <c r="AK170" t="n">
         <v>0</v>
       </c>
-      <c r="AL170" t="inlineStr"/>
       <c r="AM170" t="n">
         <v>1</v>
       </c>
       <c r="AN170" t="n">
         <v>0</v>
       </c>
-      <c r="AO170" t="inlineStr"/>
       <c r="AP170" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24461,7 +22787,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
         <v>394039.1</v>
       </c>
@@ -24476,29 +22801,27 @@
       <c r="N171" t="n">
         <v>1</v>
       </c>
-      <c r="O171" s="2" t="n">
+      <c r="O171" s="3" t="n">
         <v>44090</v>
       </c>
-      <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Mabalacat City-006</t>
         </is>
       </c>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" s="2" t="n">
+      <c r="S171" s="3" t="n">
         <v>43788</v>
       </c>
-      <c r="T171" s="2" t="n">
+      <c r="T171" s="3" t="n">
         <v>43795</v>
       </c>
-      <c r="U171" s="2" t="n">
+      <c r="U171" s="3" t="n">
         <v>43809</v>
       </c>
-      <c r="V171" s="2" t="n">
+      <c r="V171" s="3" t="n">
         <v>43826</v>
       </c>
-      <c r="W171" s="2" t="n">
+      <c r="W171" s="3" t="n">
         <v>44046</v>
       </c>
       <c r="X171" t="inlineStr">
@@ -24506,7 +22829,6 @@
           <t>R.S. DELOS REYES ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="n">
         <v>0</v>
       </c>
@@ -24554,7 +22876,6 @@
       <c r="AN171" t="n">
         <v>0</v>
       </c>
-      <c r="AO171" t="inlineStr"/>
       <c r="AP171" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24606,8 +22927,6 @@
       <c r="H172" t="n">
         <v>1</v>
       </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
         <v>758189.03</v>
       </c>
@@ -24622,15 +22941,12 @@
       <c r="N172" t="n">
         <v>1</v>
       </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-018</t>
         </is>
       </c>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" s="2" t="n">
+      <c r="S172" s="3" t="n">
         <v>44049</v>
       </c>
       <c r="T172" t="inlineStr">
@@ -24643,7 +22959,7 @@
           <t>6/27/2020</t>
         </is>
       </c>
-      <c r="V172" s="2" t="n">
+      <c r="V172" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="W172" t="inlineStr">
@@ -24651,8 +22967,6 @@
           <t>7/23/2020</t>
         </is>
       </c>
-      <c r="X172" t="inlineStr"/>
-      <c r="Y172" t="inlineStr"/>
       <c r="Z172" t="n">
         <v>0</v>
       </c>
@@ -24689,14 +23003,12 @@
       <c r="AK172" t="n">
         <v>0</v>
       </c>
-      <c r="AL172" t="inlineStr"/>
       <c r="AM172" t="n">
         <v>1</v>
       </c>
       <c r="AN172" t="n">
         <v>0</v>
       </c>
-      <c r="AO172" t="inlineStr"/>
       <c r="AP172" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24748,8 +23060,6 @@
       <c r="H173" t="n">
         <v>1</v>
       </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
         <v>1206863.67</v>
       </c>
@@ -24764,15 +23074,12 @@
       <c r="N173" t="n">
         <v>1</v>
       </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-019</t>
         </is>
       </c>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" s="2" t="n">
+      <c r="S173" s="3" t="n">
         <v>44049</v>
       </c>
       <c r="T173" t="inlineStr">
@@ -24785,7 +23092,7 @@
           <t>6/27/2020</t>
         </is>
       </c>
-      <c r="V173" s="2" t="n">
+      <c r="V173" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="W173" t="inlineStr">
@@ -24793,8 +23100,6 @@
           <t>7/23/2020</t>
         </is>
       </c>
-      <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr"/>
       <c r="Z173" t="n">
         <v>0</v>
       </c>
@@ -24831,14 +23136,12 @@
       <c r="AK173" t="n">
         <v>0</v>
       </c>
-      <c r="AL173" t="inlineStr"/>
       <c r="AM173" t="n">
         <v>1</v>
       </c>
       <c r="AN173" t="n">
         <v>0</v>
       </c>
-      <c r="AO173" t="inlineStr"/>
       <c r="AP173" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24890,8 +23193,6 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
         <v>843725.53</v>
       </c>
@@ -24906,15 +23207,12 @@
       <c r="N174" t="n">
         <v>1</v>
       </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-008</t>
         </is>
       </c>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" s="2" t="n">
+      <c r="S174" s="3" t="n">
         <v>44049</v>
       </c>
       <c r="T174" t="inlineStr">
@@ -24927,7 +23225,7 @@
           <t>6/27/2020</t>
         </is>
       </c>
-      <c r="V174" s="2" t="n">
+      <c r="V174" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="W174" t="inlineStr">
@@ -24935,8 +23233,6 @@
           <t>7/23/2020</t>
         </is>
       </c>
-      <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr"/>
       <c r="Z174" t="n">
         <v>0</v>
       </c>
@@ -24973,14 +23269,12 @@
       <c r="AK174" t="n">
         <v>0</v>
       </c>
-      <c r="AL174" t="inlineStr"/>
       <c r="AM174" t="n">
         <v>1</v>
       </c>
       <c r="AN174" t="n">
         <v>0</v>
       </c>
-      <c r="AO174" t="inlineStr"/>
       <c r="AP174" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25032,8 +23326,6 @@
       <c r="H175" t="n">
         <v>1</v>
       </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
         <v>827454.3199999999</v>
       </c>
@@ -25048,15 +23340,12 @@
       <c r="N175" t="n">
         <v>1</v>
       </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-022</t>
         </is>
       </c>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" s="2" t="n">
+      <c r="S175" s="3" t="n">
         <v>44049</v>
       </c>
       <c r="T175" t="inlineStr">
@@ -25069,7 +23358,7 @@
           <t>6/27/2020</t>
         </is>
       </c>
-      <c r="V175" s="2" t="n">
+      <c r="V175" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="W175" t="inlineStr">
@@ -25077,8 +23366,6 @@
           <t>7/23/2020</t>
         </is>
       </c>
-      <c r="X175" t="inlineStr"/>
-      <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="n">
         <v>0</v>
       </c>
@@ -25115,14 +23402,12 @@
       <c r="AK175" t="n">
         <v>0</v>
       </c>
-      <c r="AL175" t="inlineStr"/>
       <c r="AM175" t="n">
         <v>1</v>
       </c>
       <c r="AN175" t="n">
         <v>0</v>
       </c>
-      <c r="AO175" t="inlineStr"/>
       <c r="AP175" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25155,7 +23440,6 @@
           <t>Nueva Ecija</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
           <t>Mariano Llanera NHS</t>
@@ -25172,8 +23456,6 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
         <v>1109828.01</v>
       </c>
@@ -25188,15 +23470,12 @@
       <c r="N176" t="n">
         <v>1</v>
       </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-025</t>
         </is>
       </c>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" s="2" t="n">
+      <c r="S176" s="3" t="n">
         <v>44049</v>
       </c>
       <c r="T176" t="inlineStr">
@@ -25209,7 +23488,7 @@
           <t>6/27/2020</t>
         </is>
       </c>
-      <c r="V176" s="2" t="n">
+      <c r="V176" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="W176" t="inlineStr">
@@ -25217,8 +23496,6 @@
           <t>7/23/2020</t>
         </is>
       </c>
-      <c r="X176" t="inlineStr"/>
-      <c r="Y176" t="inlineStr"/>
       <c r="Z176" t="n">
         <v>0</v>
       </c>
@@ -25255,14 +23532,12 @@
       <c r="AK176" t="n">
         <v>0</v>
       </c>
-      <c r="AL176" t="inlineStr"/>
       <c r="AM176" t="n">
         <v>1</v>
       </c>
       <c r="AN176" t="n">
         <v>0</v>
       </c>
-      <c r="AO176" t="inlineStr"/>
       <c r="AP176" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25314,8 +23589,6 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
         <v>925384.8199999999</v>
       </c>
@@ -25330,15 +23603,12 @@
       <c r="N177" t="n">
         <v>1</v>
       </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-014</t>
         </is>
       </c>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" s="2" t="n">
+      <c r="S177" s="3" t="n">
         <v>44049</v>
       </c>
       <c r="T177" t="inlineStr">
@@ -25351,7 +23621,7 @@
           <t>6/27/2020</t>
         </is>
       </c>
-      <c r="V177" s="2" t="n">
+      <c r="V177" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="W177" t="inlineStr">
@@ -25359,8 +23629,6 @@
           <t>7/23/2020</t>
         </is>
       </c>
-      <c r="X177" t="inlineStr"/>
-      <c r="Y177" t="inlineStr"/>
       <c r="Z177" t="n">
         <v>0</v>
       </c>
@@ -25397,14 +23665,12 @@
       <c r="AK177" t="n">
         <v>0</v>
       </c>
-      <c r="AL177" t="inlineStr"/>
       <c r="AM177" t="n">
         <v>1</v>
       </c>
       <c r="AN177" t="n">
         <v>0</v>
       </c>
-      <c r="AO177" t="inlineStr"/>
       <c r="AP177" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25456,8 +23722,6 @@
       <c r="H178" t="n">
         <v>1</v>
       </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
         <v>983739.35</v>
       </c>
@@ -25472,15 +23736,12 @@
       <c r="N178" t="n">
         <v>1</v>
       </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-002</t>
         </is>
       </c>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" s="2" t="n">
+      <c r="S178" s="3" t="n">
         <v>44049</v>
       </c>
       <c r="T178" t="inlineStr">
@@ -25493,7 +23754,7 @@
           <t>6/27/2020</t>
         </is>
       </c>
-      <c r="V178" s="2" t="n">
+      <c r="V178" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="W178" t="inlineStr">
@@ -25501,8 +23762,6 @@
           <t>7/23/2020</t>
         </is>
       </c>
-      <c r="X178" t="inlineStr"/>
-      <c r="Y178" t="inlineStr"/>
       <c r="Z178" t="n">
         <v>0</v>
       </c>
@@ -25539,14 +23798,12 @@
       <c r="AK178" t="n">
         <v>0</v>
       </c>
-      <c r="AL178" t="inlineStr"/>
       <c r="AM178" t="n">
         <v>1</v>
       </c>
       <c r="AN178" t="n">
         <v>0</v>
       </c>
-      <c r="AO178" t="inlineStr"/>
       <c r="AP178" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25598,8 +23855,6 @@
       <c r="H179" t="n">
         <v>1</v>
       </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
         <v>897358.6899999999</v>
       </c>
@@ -25619,13 +23874,11 @@
           <t>October , 2020</t>
         </is>
       </c>
-      <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-001</t>
         </is>
       </c>
-      <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr">
         <is>
           <t>June , 2020</t>
@@ -25651,8 +23904,6 @@
           <t>August , 2020</t>
         </is>
       </c>
-      <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="inlineStr"/>
       <c r="Z179" t="n">
         <v>0</v>
       </c>
@@ -25689,14 +23940,12 @@
       <c r="AK179" t="n">
         <v>0</v>
       </c>
-      <c r="AL179" t="inlineStr"/>
       <c r="AM179" t="n">
         <v>1</v>
       </c>
       <c r="AN179" t="n">
         <v>0</v>
       </c>
-      <c r="AO179" t="inlineStr"/>
       <c r="AP179" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25748,8 +23997,6 @@
       <c r="H180" t="n">
         <v>1</v>
       </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
         <v>592471.04</v>
       </c>
@@ -25764,15 +24011,12 @@
       <c r="N180" t="n">
         <v>1</v>
       </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-005</t>
         </is>
       </c>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" s="2" t="n">
+      <c r="S180" s="3" t="n">
         <v>44049</v>
       </c>
       <c r="T180" t="inlineStr">
@@ -25785,7 +24029,7 @@
           <t>6/27/2020</t>
         </is>
       </c>
-      <c r="V180" s="2" t="n">
+      <c r="V180" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="W180" t="inlineStr">
@@ -25793,8 +24037,6 @@
           <t>7/23/2020</t>
         </is>
       </c>
-      <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="n">
         <v>0</v>
       </c>
@@ -25831,14 +24073,12 @@
       <c r="AK180" t="n">
         <v>0</v>
       </c>
-      <c r="AL180" t="inlineStr"/>
       <c r="AM180" t="n">
         <v>1</v>
       </c>
       <c r="AN180" t="n">
         <v>0</v>
       </c>
-      <c r="AO180" t="inlineStr"/>
       <c r="AP180" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25890,8 +24130,6 @@
       <c r="H181" t="n">
         <v>1</v>
       </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>472896.56</v>
       </c>
@@ -25911,13 +24149,11 @@
           <t>October , 2020</t>
         </is>
       </c>
-      <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-010</t>
         </is>
       </c>
-      <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr">
         <is>
           <t>June , 2020</t>
@@ -25943,8 +24179,6 @@
           <t>August , 2020</t>
         </is>
       </c>
-      <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="n">
         <v>0</v>
       </c>
@@ -25981,14 +24215,12 @@
       <c r="AK181" t="n">
         <v>0</v>
       </c>
-      <c r="AL181" t="inlineStr"/>
       <c r="AM181" t="n">
         <v>1</v>
       </c>
       <c r="AN181" t="n">
         <v>0</v>
       </c>
-      <c r="AO181" t="inlineStr"/>
       <c r="AP181" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26040,8 +24272,6 @@
       <c r="H182" t="n">
         <v>1</v>
       </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
         <v>841861.5699999999</v>
       </c>
@@ -26056,15 +24286,12 @@
       <c r="N182" t="n">
         <v>1</v>
       </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Nueva Ecija-012</t>
         </is>
       </c>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" s="2" t="n">
+      <c r="S182" s="3" t="n">
         <v>44049</v>
       </c>
       <c r="T182" t="inlineStr">
@@ -26077,7 +24304,7 @@
           <t>6/27/2020</t>
         </is>
       </c>
-      <c r="V182" s="2" t="n">
+      <c r="V182" s="3" t="n">
         <v>44111</v>
       </c>
       <c r="W182" t="inlineStr">
@@ -26085,8 +24312,6 @@
           <t>7/23/2020</t>
         </is>
       </c>
-      <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="n">
         <v>0</v>
       </c>
@@ -26123,14 +24348,12 @@
       <c r="AK182" t="n">
         <v>0</v>
       </c>
-      <c r="AL182" t="inlineStr"/>
       <c r="AM182" t="n">
         <v>1</v>
       </c>
       <c r="AN182" t="n">
         <v>0</v>
       </c>
-      <c r="AO182" t="inlineStr"/>
       <c r="AP182" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26187,7 +24410,6 @@
           <t>SOLAR PANEL</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
         <v>2180222.02</v>
       </c>
@@ -26217,7 +24439,6 @@
           <t>Elec2020-RIII-Zambales-008</t>
         </is>
       </c>
-      <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr">
         <is>
           <t>December 13, 2019</t>
@@ -26248,7 +24469,6 @@
           <t>ILS POWER ENGINEERING SERVICE &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="n">
         <v>0</v>
       </c>
@@ -26285,14 +24505,12 @@
       <c r="AK183" t="n">
         <v>0</v>
       </c>
-      <c r="AL183" t="inlineStr"/>
       <c r="AM183" t="n">
         <v>1</v>
       </c>
       <c r="AN183" t="n">
         <v>0</v>
       </c>
-      <c r="AO183" t="inlineStr"/>
       <c r="AP183" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26349,7 +24567,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
         <v>1312135.13</v>
       </c>
@@ -26379,7 +24596,6 @@
           <t>Elec2020-RIII-Zambales-001</t>
         </is>
       </c>
-      <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr">
         <is>
           <t>December 13, 2019</t>
@@ -26410,7 +24626,6 @@
           <t>ILS POWER ENGINEERING SERVICE &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="n">
         <v>0</v>
       </c>
@@ -26447,14 +24662,12 @@
       <c r="AK184" t="n">
         <v>0</v>
       </c>
-      <c r="AL184" t="inlineStr"/>
       <c r="AM184" t="n">
         <v>1</v>
       </c>
       <c r="AN184" t="n">
         <v>0</v>
       </c>
-      <c r="AO184" t="inlineStr"/>
       <c r="AP184" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26511,7 +24724,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
         <v>537823.72</v>
       </c>
@@ -26541,7 +24753,6 @@
           <t>Elec2020-RIII-Zambales-006</t>
         </is>
       </c>
-      <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr">
         <is>
           <t>December 13, 2019</t>
@@ -26572,7 +24783,6 @@
           <t>ILS POWER ENGINEERING SERVICE &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="n">
         <v>0</v>
       </c>
@@ -26609,14 +24819,12 @@
       <c r="AK185" t="n">
         <v>0</v>
       </c>
-      <c r="AL185" t="inlineStr"/>
       <c r="AM185" t="n">
         <v>1</v>
       </c>
       <c r="AN185" t="n">
         <v>0</v>
       </c>
-      <c r="AO185" t="inlineStr"/>
       <c r="AP185" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26673,7 +24881,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
         <v>935743.25</v>
       </c>
@@ -26703,7 +24910,6 @@
           <t>Elec2020-RIII-Zambales-003</t>
         </is>
       </c>
-      <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr">
         <is>
           <t>December 13, 2019</t>
@@ -26734,7 +24940,6 @@
           <t>ILS POWER ENGINEERING SERVICE &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y186" t="inlineStr"/>
       <c r="Z186" t="n">
         <v>0</v>
       </c>
@@ -26771,14 +24976,12 @@
       <c r="AK186" t="n">
         <v>0</v>
       </c>
-      <c r="AL186" t="inlineStr"/>
       <c r="AM186" t="n">
         <v>1</v>
       </c>
       <c r="AN186" t="n">
         <v>0</v>
       </c>
-      <c r="AO186" t="inlineStr"/>
       <c r="AP186" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26835,7 +25038,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
         <v>655900.23</v>
       </c>
@@ -26865,7 +25067,6 @@
           <t>Elec2020-RIII-Zambales-004</t>
         </is>
       </c>
-      <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr">
         <is>
           <t>December 13, 2019</t>
@@ -26896,7 +25097,6 @@
           <t>ILS POWER ENGINEERING SERVICE &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="n">
         <v>0</v>
       </c>
@@ -26933,14 +25133,12 @@
       <c r="AK187" t="n">
         <v>0</v>
       </c>
-      <c r="AL187" t="inlineStr"/>
       <c r="AM187" t="n">
         <v>1</v>
       </c>
       <c r="AN187" t="n">
         <v>0</v>
       </c>
-      <c r="AO187" t="inlineStr"/>
       <c r="AP187" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26997,7 +25195,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>429579.36</v>
       </c>
@@ -27027,7 +25224,6 @@
           <t>Elec2020-RIII-Zambales-005</t>
         </is>
       </c>
-      <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr">
         <is>
           <t>December 13, 2019</t>
@@ -27058,7 +25254,6 @@
           <t>ILS POWER ENGINEERING SERVICE &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="n">
         <v>0</v>
       </c>
@@ -27095,14 +25290,12 @@
       <c r="AK188" t="n">
         <v>0</v>
       </c>
-      <c r="AL188" t="inlineStr"/>
       <c r="AM188" t="n">
         <v>1</v>
       </c>
       <c r="AN188" t="n">
         <v>0</v>
       </c>
-      <c r="AO188" t="inlineStr"/>
       <c r="AP188" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -27159,7 +25352,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
         <v>1020681.07</v>
       </c>
@@ -27189,7 +25381,6 @@
           <t>Elec2020-RIII-Zambales-013</t>
         </is>
       </c>
-      <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr">
         <is>
           <t>December 13, 2019</t>
@@ -27220,7 +25411,6 @@
           <t>ILS POWER ENGINEERING SERVICE &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="n">
         <v>0</v>
       </c>
@@ -27257,14 +25447,12 @@
       <c r="AK189" t="n">
         <v>0</v>
       </c>
-      <c r="AL189" t="inlineStr"/>
       <c r="AM189" t="n">
         <v>1</v>
       </c>
       <c r="AN189" t="n">
         <v>0</v>
       </c>
-      <c r="AO189" t="inlineStr"/>
       <c r="AP189" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -27321,11 +25509,9 @@
           <t>SOLAR PANEL</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
         <v>2167130.4</v>
       </c>
-      <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -27339,13 +25525,11 @@
           <t>November 2020</t>
         </is>
       </c>
-      <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr">
         <is>
           <t>Elec2020-RIII-Zambales-011</t>
         </is>
       </c>
-      <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr">
         <is>
           <t>June 2020</t>
@@ -27371,8 +25555,6 @@
           <t>September 2020</t>
         </is>
       </c>
-      <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="n">
         <v>0</v>
       </c>
@@ -27409,14 +25591,12 @@
       <c r="AK190" t="n">
         <v>0</v>
       </c>
-      <c r="AL190" t="inlineStr"/>
       <c r="AM190" t="n">
         <v>1</v>
       </c>
       <c r="AN190" t="n">
         <v>0</v>
       </c>
-      <c r="AO190" t="inlineStr"/>
       <c r="AP190" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -27473,7 +25653,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
         <v>1014004.43</v>
       </c>
@@ -27503,7 +25682,6 @@
           <t>Elec2020-RIII-Zambales-002</t>
         </is>
       </c>
-      <c r="R191" t="inlineStr"/>
       <c r="S191" t="inlineStr">
         <is>
           <t>December 13, 2019</t>
@@ -27534,7 +25712,6 @@
           <t>ILS POWER ENGINEERING SERVICE &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="n">
         <v>0</v>
       </c>
@@ -27571,14 +25748,12 @@
       <c r="AK191" t="n">
         <v>0</v>
       </c>
-      <c r="AL191" t="inlineStr"/>
       <c r="AM191" t="n">
         <v>1</v>
       </c>
       <c r="AN191" t="n">
         <v>0</v>
       </c>
-      <c r="AO191" t="inlineStr"/>
       <c r="AP191" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -27643,7 +25818,6 @@
       <c r="K192" t="n">
         <v>704044.4399999999</v>
       </c>
-      <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -27652,17 +25826,6 @@
       <c r="N192" t="n">
         <v>1</v>
       </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr"/>
-      <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
-      <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
         <v>0</v>
       </c>
@@ -27699,14 +25862,12 @@
       <c r="AK192" t="n">
         <v>0</v>
       </c>
-      <c r="AL192" t="inlineStr"/>
       <c r="AM192" t="n">
         <v>1</v>
       </c>
       <c r="AN192" t="n">
         <v>0</v>
       </c>
-      <c r="AO192" t="inlineStr"/>
       <c r="AP192" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -27771,7 +25932,6 @@
       <c r="K193" t="n">
         <v>731715.27</v>
       </c>
-      <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -27780,17 +25940,6 @@
       <c r="N193" t="n">
         <v>1</v>
       </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr"/>
-      <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
-      <c r="W193" t="inlineStr"/>
-      <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">
         <v>0</v>
       </c>
@@ -27827,14 +25976,12 @@
       <c r="AK193" t="n">
         <v>0</v>
       </c>
-      <c r="AL193" t="inlineStr"/>
       <c r="AM193" t="n">
         <v>1</v>
       </c>
       <c r="AN193" t="n">
         <v>0</v>
       </c>
-      <c r="AO193" t="inlineStr"/>
       <c r="AP193" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -27899,7 +26046,6 @@
       <c r="K194" t="n">
         <v>592087.4399999999</v>
       </c>
-      <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -27908,17 +26054,6 @@
       <c r="N194" t="n">
         <v>1</v>
       </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="inlineStr"/>
-      <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr"/>
-      <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
         <v>0</v>
       </c>
@@ -27955,14 +26090,12 @@
       <c r="AK194" t="n">
         <v>0</v>
       </c>
-      <c r="AL194" t="inlineStr"/>
       <c r="AM194" t="n">
         <v>1</v>
       </c>
       <c r="AN194" t="n">
         <v>0</v>
       </c>
-      <c r="AO194" t="inlineStr"/>
       <c r="AP194" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -28027,7 +26160,6 @@
       <c r="K195" t="n">
         <v>371795.43</v>
       </c>
-      <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -28036,17 +26168,6 @@
       <c r="N195" t="n">
         <v>1</v>
       </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr"/>
-      <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
-      <c r="W195" t="inlineStr"/>
-      <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="n">
         <v>0</v>
       </c>
@@ -28083,14 +26204,12 @@
       <c r="AK195" t="n">
         <v>0</v>
       </c>
-      <c r="AL195" t="inlineStr"/>
       <c r="AM195" t="n">
         <v>1</v>
       </c>
       <c r="AN195" t="n">
         <v>0</v>
       </c>
-      <c r="AO195" t="inlineStr"/>
       <c r="AP195" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -28155,7 +26274,6 @@
       <c r="K196" t="n">
         <v>524063.33</v>
       </c>
-      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -28164,17 +26282,6 @@
       <c r="N196" t="n">
         <v>1</v>
       </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="inlineStr"/>
-      <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr"/>
-      <c r="V196" t="inlineStr"/>
-      <c r="W196" t="inlineStr"/>
-      <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="n">
         <v>0</v>
       </c>
@@ -28211,14 +26318,12 @@
       <c r="AK196" t="n">
         <v>0</v>
       </c>
-      <c r="AL196" t="inlineStr"/>
       <c r="AM196" t="n">
         <v>1</v>
       </c>
       <c r="AN196" t="n">
         <v>0</v>
       </c>
-      <c r="AO196" t="inlineStr"/>
       <c r="AP196" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -28294,10 +26399,10 @@
       <c r="N197" t="n">
         <v>1</v>
       </c>
-      <c r="O197" s="2" t="n">
+      <c r="O197" s="3" t="n">
         <v>45590</v>
       </c>
-      <c r="P197" s="2" t="n">
+      <c r="P197" s="3" t="n">
         <v>45588</v>
       </c>
       <c r="Q197" t="inlineStr">
@@ -28315,7 +26420,7 @@
           <t>May 30,2024</t>
         </is>
       </c>
-      <c r="T197" s="2" t="n">
+      <c r="T197" s="3" t="n">
         <v>45450</v>
       </c>
       <c r="U197" t="inlineStr">
@@ -28328,7 +26433,7 @@
           <t>August 9,2024</t>
         </is>
       </c>
-      <c r="W197" s="2" t="n">
+      <c r="W197" s="3" t="n">
         <v>45518</v>
       </c>
       <c r="X197" t="inlineStr">
@@ -28377,14 +26482,12 @@
       <c r="AK197" t="n">
         <v>0</v>
       </c>
-      <c r="AL197" t="inlineStr"/>
       <c r="AM197" t="n">
         <v>1</v>
       </c>
       <c r="AN197" t="n">
         <v>0</v>
       </c>
-      <c r="AO197" t="inlineStr"/>
       <c r="AP197" t="n">
         <v>10.24</v>
       </c>
@@ -28458,10 +26561,10 @@
       <c r="N198" t="n">
         <v>1</v>
       </c>
-      <c r="O198" s="2" t="n">
+      <c r="O198" s="3" t="n">
         <v>45590</v>
       </c>
-      <c r="P198" s="2" t="n">
+      <c r="P198" s="3" t="n">
         <v>45588</v>
       </c>
       <c r="Q198" t="inlineStr">
@@ -28479,7 +26582,7 @@
           <t>May 30,2024</t>
         </is>
       </c>
-      <c r="T198" s="2" t="n">
+      <c r="T198" s="3" t="n">
         <v>45450</v>
       </c>
       <c r="U198" t="inlineStr">
@@ -28492,7 +26595,7 @@
           <t>August 9,2024</t>
         </is>
       </c>
-      <c r="W198" s="2" t="n">
+      <c r="W198" s="3" t="n">
         <v>45518</v>
       </c>
       <c r="X198" t="inlineStr">
@@ -28541,14 +26644,12 @@
       <c r="AK198" t="n">
         <v>0</v>
       </c>
-      <c r="AL198" t="inlineStr"/>
       <c r="AM198" t="n">
         <v>1</v>
       </c>
       <c r="AN198" t="n">
         <v>0</v>
       </c>
-      <c r="AO198" t="inlineStr"/>
       <c r="AP198" t="n">
         <v>10.24</v>
       </c>
@@ -28715,14 +26816,12 @@
       <c r="AK199" t="n">
         <v>0</v>
       </c>
-      <c r="AL199" t="inlineStr"/>
       <c r="AM199" t="n">
         <v>1</v>
       </c>
       <c r="AN199" t="n">
         <v>0</v>
       </c>
-      <c r="AO199" t="inlineStr"/>
       <c r="AP199" t="n">
         <v>9.24</v>
       </c>
@@ -28796,7 +26895,7 @@
       <c r="N200" t="n">
         <v>1</v>
       </c>
-      <c r="O200" s="2" t="n">
+      <c r="O200" s="3" t="n">
         <v>45542</v>
       </c>
       <c r="P200" t="inlineStr">
@@ -28819,16 +26918,16 @@
           <t>October 25, 2023-November 21, 2023</t>
         </is>
       </c>
-      <c r="T200" s="2" t="n">
+      <c r="T200" s="3" t="n">
         <v>45237</v>
       </c>
-      <c r="U200" s="2" t="n">
+      <c r="U200" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="V200" s="2" t="n">
+      <c r="V200" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="W200" s="2" t="n">
+      <c r="W200" s="3" t="n">
         <v>45447</v>
       </c>
       <c r="X200" t="inlineStr">
@@ -28877,14 +26976,12 @@
       <c r="AK200" t="n">
         <v>0</v>
       </c>
-      <c r="AL200" t="inlineStr"/>
       <c r="AM200" t="n">
         <v>1</v>
       </c>
       <c r="AN200" t="n">
         <v>0</v>
       </c>
-      <c r="AO200" t="inlineStr"/>
       <c r="AP200" t="n">
         <v>9.24</v>
       </c>
@@ -28958,7 +27055,7 @@
       <c r="N201" t="n">
         <v>1</v>
       </c>
-      <c r="O201" s="2" t="n">
+      <c r="O201" s="3" t="n">
         <v>45542</v>
       </c>
       <c r="P201" t="inlineStr">
@@ -28981,16 +27078,16 @@
           <t>October 25, 2023-November 21, 2023</t>
         </is>
       </c>
-      <c r="T201" s="2" t="n">
+      <c r="T201" s="3" t="n">
         <v>45237</v>
       </c>
-      <c r="U201" s="2" t="n">
+      <c r="U201" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="V201" s="2" t="n">
+      <c r="V201" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="W201" s="2" t="n">
+      <c r="W201" s="3" t="n">
         <v>45447</v>
       </c>
       <c r="X201" t="inlineStr">
@@ -29039,14 +27136,12 @@
       <c r="AK201" t="n">
         <v>0</v>
       </c>
-      <c r="AL201" t="inlineStr"/>
       <c r="AM201" t="n">
         <v>1</v>
       </c>
       <c r="AN201" t="n">
         <v>0</v>
       </c>
-      <c r="AO201" t="inlineStr"/>
       <c r="AP201" t="n">
         <v>9.24</v>
       </c>
@@ -29120,7 +27215,7 @@
       <c r="N202" t="n">
         <v>1</v>
       </c>
-      <c r="O202" s="2" t="n">
+      <c r="O202" s="3" t="n">
         <v>45542</v>
       </c>
       <c r="P202" t="inlineStr">
@@ -29143,16 +27238,16 @@
           <t>October 25, 2023-November 21, 2023</t>
         </is>
       </c>
-      <c r="T202" s="2" t="n">
+      <c r="T202" s="3" t="n">
         <v>45237</v>
       </c>
-      <c r="U202" s="2" t="n">
+      <c r="U202" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="V202" s="2" t="n">
+      <c r="V202" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="W202" s="2" t="n">
+      <c r="W202" s="3" t="n">
         <v>45447</v>
       </c>
       <c r="X202" t="inlineStr">
@@ -29201,14 +27296,12 @@
       <c r="AK202" t="n">
         <v>0</v>
       </c>
-      <c r="AL202" t="inlineStr"/>
       <c r="AM202" t="n">
         <v>1</v>
       </c>
       <c r="AN202" t="n">
         <v>0</v>
       </c>
-      <c r="AO202" t="inlineStr"/>
       <c r="AP202" t="n">
         <v>9.24</v>
       </c>
@@ -29282,7 +27375,7 @@
       <c r="N203" t="n">
         <v>1</v>
       </c>
-      <c r="O203" s="2" t="n">
+      <c r="O203" s="3" t="n">
         <v>45774</v>
       </c>
       <c r="P203" t="inlineStr">
@@ -29300,19 +27393,19 @@
           <t>PB-24-07-012</t>
         </is>
       </c>
-      <c r="S203" s="2" t="n">
+      <c r="S203" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="T203" s="2" t="n">
+      <c r="T203" s="3" t="n">
         <v>45274</v>
       </c>
-      <c r="U203" s="2" t="n">
+      <c r="U203" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="V203" s="2" t="n">
+      <c r="V203" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W203" s="2" t="n">
+      <c r="W203" s="3" t="n">
         <v>45497</v>
       </c>
       <c r="X203" t="inlineStr">
@@ -29361,14 +27454,12 @@
       <c r="AK203" t="n">
         <v>0</v>
       </c>
-      <c r="AL203" t="inlineStr"/>
       <c r="AM203" t="n">
         <v>1</v>
       </c>
       <c r="AN203" t="n">
         <v>0</v>
       </c>
-      <c r="AO203" t="inlineStr"/>
       <c r="AP203" t="n">
         <v>3.25</v>
       </c>
@@ -29442,7 +27533,7 @@
       <c r="N204" t="n">
         <v>1</v>
       </c>
-      <c r="O204" s="2" t="n">
+      <c r="O204" s="3" t="n">
         <v>45774</v>
       </c>
       <c r="P204" t="inlineStr">
@@ -29460,19 +27551,19 @@
           <t>PB-24-07-014</t>
         </is>
       </c>
-      <c r="S204" s="2" t="n">
+      <c r="S204" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="T204" s="2" t="n">
+      <c r="T204" s="3" t="n">
         <v>45274</v>
       </c>
-      <c r="U204" s="2" t="n">
+      <c r="U204" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="V204" s="2" t="n">
+      <c r="V204" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W204" s="2" t="n">
+      <c r="W204" s="3" t="n">
         <v>45497</v>
       </c>
       <c r="X204" t="inlineStr">
@@ -29521,14 +27612,12 @@
       <c r="AK204" t="n">
         <v>0</v>
       </c>
-      <c r="AL204" t="inlineStr"/>
       <c r="AM204" t="n">
         <v>1</v>
       </c>
       <c r="AN204" t="n">
         <v>0</v>
       </c>
-      <c r="AO204" t="inlineStr"/>
       <c r="AP204" t="n">
         <v>3.25</v>
       </c>
@@ -29602,10 +27691,9 @@
       <c r="N205" t="n">
         <v>1</v>
       </c>
-      <c r="O205" s="2" t="n">
+      <c r="O205" s="3" t="n">
         <v>45725</v>
       </c>
-      <c r="P205" t="inlineStr"/>
       <c r="Q205" t="inlineStr">
         <is>
           <t>PB-24-005</t>
@@ -29616,19 +27704,19 @@
           <t>PB-24-05-009</t>
         </is>
       </c>
-      <c r="S205" s="2" t="n">
+      <c r="S205" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="T205" s="2" t="n">
+      <c r="T205" s="3" t="n">
         <v>45274</v>
       </c>
-      <c r="U205" s="2" t="n">
+      <c r="U205" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="V205" s="2" t="n">
+      <c r="V205" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W205" s="2" t="n">
+      <c r="W205" s="3" t="n">
         <v>45448</v>
       </c>
       <c r="X205" t="inlineStr">
@@ -29677,14 +27765,12 @@
       <c r="AK205" t="n">
         <v>0</v>
       </c>
-      <c r="AL205" t="inlineStr"/>
       <c r="AM205" t="n">
         <v>1</v>
       </c>
       <c r="AN205" t="n">
         <v>0</v>
       </c>
-      <c r="AO205" t="inlineStr"/>
       <c r="AP205" t="n">
         <v>3.25</v>
       </c>
@@ -29758,7 +27844,7 @@
       <c r="N206" t="n">
         <v>1</v>
       </c>
-      <c r="O206" s="2" t="n">
+      <c r="O206" s="3" t="n">
         <v>45774</v>
       </c>
       <c r="P206" t="inlineStr">
@@ -29776,19 +27862,19 @@
           <t>PB-24-07-013</t>
         </is>
       </c>
-      <c r="S206" s="2" t="n">
+      <c r="S206" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="T206" s="2" t="n">
+      <c r="T206" s="3" t="n">
         <v>45274</v>
       </c>
-      <c r="U206" s="2" t="n">
+      <c r="U206" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="V206" s="2" t="n">
+      <c r="V206" s="3" t="n">
         <v>45299</v>
       </c>
-      <c r="W206" s="2" t="n">
+      <c r="W206" s="3" t="n">
         <v>45497</v>
       </c>
       <c r="X206" t="inlineStr">
@@ -29837,14 +27923,12 @@
       <c r="AK206" t="n">
         <v>0</v>
       </c>
-      <c r="AL206" t="inlineStr"/>
       <c r="AM206" t="n">
         <v>1</v>
       </c>
       <c r="AN206" t="n">
         <v>0</v>
       </c>
-      <c r="AO206" t="inlineStr"/>
       <c r="AP206" t="n">
         <v>3.25</v>
       </c>
@@ -30009,14 +28093,12 @@
       <c r="AK207" t="n">
         <v>0</v>
       </c>
-      <c r="AL207" t="inlineStr"/>
       <c r="AM207" t="n">
         <v>1</v>
       </c>
       <c r="AN207" t="n">
         <v>0</v>
       </c>
-      <c r="AO207" t="inlineStr"/>
       <c r="AP207" t="n">
         <v>9.24</v>
       </c>
@@ -30090,7 +28172,7 @@
       <c r="N208" t="n">
         <v>0.8</v>
       </c>
-      <c r="O208" s="2" t="n">
+      <c r="O208" s="3" t="n">
         <v>45534</v>
       </c>
       <c r="P208" t="inlineStr">
@@ -30118,7 +28200,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="U208" s="2" t="n">
+      <c r="U208" s="3" t="n">
         <v>45275</v>
       </c>
       <c r="V208" t="inlineStr">
@@ -30126,7 +28208,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="W208" s="2" t="n">
+      <c r="W208" s="3" t="n">
         <v>45468</v>
       </c>
       <c r="X208" t="inlineStr">
@@ -30175,15 +28257,12 @@
       <c r="AK208" t="n">
         <v>0</v>
       </c>
-      <c r="AL208" t="inlineStr"/>
       <c r="AM208" t="n">
         <v>0.8</v>
       </c>
       <c r="AN208" t="n">
         <v>0</v>
       </c>
-      <c r="AO208" t="inlineStr"/>
-      <c r="AP208" t="inlineStr"/>
       <c r="AQ208" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -30345,14 +28424,12 @@
       <c r="AK209" t="n">
         <v>0</v>
       </c>
-      <c r="AL209" t="inlineStr"/>
       <c r="AM209" t="n">
         <v>1</v>
       </c>
       <c r="AN209" t="n">
         <v>0</v>
       </c>
-      <c r="AO209" t="inlineStr"/>
       <c r="AP209" t="n">
         <v>9.24</v>
       </c>
@@ -30517,14 +28594,12 @@
       <c r="AK210" t="n">
         <v>0</v>
       </c>
-      <c r="AL210" t="inlineStr"/>
       <c r="AM210" t="n">
         <v>1</v>
       </c>
       <c r="AN210" t="n">
         <v>0</v>
       </c>
-      <c r="AO210" t="inlineStr"/>
       <c r="AP210" t="n">
         <v>9.24</v>
       </c>
@@ -30689,14 +28764,12 @@
       <c r="AK211" t="n">
         <v>0</v>
       </c>
-      <c r="AL211" t="inlineStr"/>
       <c r="AM211" t="n">
         <v>1</v>
       </c>
       <c r="AN211" t="n">
         <v>0</v>
       </c>
-      <c r="AO211" t="inlineStr"/>
       <c r="AP211" t="n">
         <v>9.24</v>
       </c>
@@ -30861,14 +28934,12 @@
       <c r="AK212" t="n">
         <v>0</v>
       </c>
-      <c r="AL212" t="inlineStr"/>
       <c r="AM212" t="n">
         <v>1</v>
       </c>
       <c r="AN212" t="n">
         <v>0</v>
       </c>
-      <c r="AO212" t="inlineStr"/>
       <c r="AP212" t="n">
         <v>9.24</v>
       </c>
@@ -30964,19 +29035,19 @@
           <t>2024-06-208</t>
         </is>
       </c>
-      <c r="S213" s="2" t="n">
+      <c r="S213" s="3" t="n">
         <v>45471</v>
       </c>
-      <c r="T213" s="2" t="n">
+      <c r="T213" s="3" t="n">
         <v>45483</v>
       </c>
-      <c r="U213" s="2" t="n">
+      <c r="U213" s="3" t="n">
         <v>45495</v>
       </c>
-      <c r="V213" s="2" t="n">
+      <c r="V213" s="3" t="n">
         <v>45505</v>
       </c>
-      <c r="W213" s="2" t="n">
+      <c r="W213" s="3" t="n">
         <v>45553</v>
       </c>
       <c r="X213" t="inlineStr">
@@ -31025,14 +29096,12 @@
       <c r="AK213" t="n">
         <v>0</v>
       </c>
-      <c r="AL213" t="inlineStr"/>
       <c r="AM213" t="n">
         <v>1</v>
       </c>
       <c r="AN213" t="n">
         <v>0</v>
       </c>
-      <c r="AO213" t="inlineStr"/>
       <c r="AP213" t="n">
         <v>1.25</v>
       </c>
@@ -31107,10 +29176,6 @@
       <c r="N214" t="n">
         <v>0</v>
       </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
       <c r="S214" t="inlineStr">
         <is>
           <t>August 23, 2024</t>
@@ -31131,7 +29196,6 @@
           <t>September 17, 2024</t>
         </is>
       </c>
-      <c r="W214" t="inlineStr"/>
       <c r="X214" t="inlineStr">
         <is>
           <t>ARESBI CONSTRUCTION</t>
@@ -31178,15 +29242,12 @@
       <c r="AK214" t="n">
         <v>0</v>
       </c>
-      <c r="AL214" t="inlineStr"/>
       <c r="AM214" t="n">
         <v>0</v>
       </c>
       <c r="AN214" t="n">
         <v>0</v>
       </c>
-      <c r="AO214" t="inlineStr"/>
-      <c r="AP214" t="inlineStr"/>
       <c r="AQ214" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -31348,14 +29409,12 @@
       <c r="AK215" t="n">
         <v>0</v>
       </c>
-      <c r="AL215" t="inlineStr"/>
       <c r="AM215" t="n">
         <v>1</v>
       </c>
       <c r="AN215" t="n">
         <v>0</v>
       </c>
-      <c r="AO215" t="inlineStr"/>
       <c r="AP215" t="n">
         <v>7.24</v>
       </c>
@@ -31522,14 +29581,12 @@
       <c r="AK216" t="n">
         <v>0</v>
       </c>
-      <c r="AL216" t="inlineStr"/>
       <c r="AM216" t="n">
         <v>1</v>
       </c>
       <c r="AN216" t="n">
         <v>0</v>
       </c>
-      <c r="AO216" t="inlineStr"/>
       <c r="AP216" t="n">
         <v>9.24</v>
       </c>
@@ -31696,14 +29753,12 @@
       <c r="AK217" t="n">
         <v>0</v>
       </c>
-      <c r="AL217" t="inlineStr"/>
       <c r="AM217" t="n">
         <v>1</v>
       </c>
       <c r="AN217" t="n">
         <v>0</v>
       </c>
-      <c r="AO217" t="inlineStr"/>
       <c r="AP217" t="n">
         <v>7.24</v>
       </c>
@@ -31715,6 +29770,79 @@
       <c r="AR217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AS2:AS217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region III/Region III_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region III/Region III_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS217"/>
+  <dimension ref="A1:AU217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -789,7 +799,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -923,7 +933,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1057,7 +1067,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1171,7 +1181,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1288,7 +1298,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1405,7 +1415,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1522,7 +1532,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1639,7 +1649,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1756,7 +1766,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1873,7 +1883,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1990,7 +2000,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2107,7 +2117,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2224,7 +2234,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2341,7 +2351,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2458,7 +2468,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2575,7 +2585,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2692,7 +2702,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2837,7 +2847,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2982,7 +2992,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3127,7 +3137,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3272,7 +3282,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3415,7 +3425,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3558,7 +3568,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3701,7 +3711,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3844,7 +3854,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3961,7 +3971,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4104,7 +4114,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4221,7 +4231,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4355,7 +4365,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4489,7 +4499,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4623,7 +4633,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4757,7 +4767,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4891,7 +4901,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5038,7 +5048,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5155,7 +5165,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5272,7 +5282,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5389,7 +5399,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5506,7 +5516,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5620,7 +5630,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5737,7 +5747,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5854,7 +5864,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5971,7 +5981,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6088,7 +6098,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6205,7 +6215,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6319,7 +6329,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6436,7 +6446,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6553,7 +6563,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6670,7 +6680,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6784,7 +6794,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6901,7 +6911,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7015,7 +7025,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7132,7 +7142,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7249,7 +7259,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7366,7 +7376,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7483,7 +7493,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7600,7 +7610,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7717,7 +7727,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7834,7 +7844,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7951,7 +7961,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8068,7 +8078,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8182,7 +8192,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8299,7 +8309,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8416,7 +8426,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8533,7 +8543,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8650,7 +8660,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8767,7 +8777,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8886,6 +8896,11 @@
       </c>
       <c r="AR68" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -9001,7 +9016,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9153,7 +9168,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9305,7 +9320,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9424,6 +9439,11 @@
       </c>
       <c r="AR72" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -9574,7 +9594,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9726,7 +9746,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9878,7 +9898,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10030,7 +10050,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10182,7 +10202,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10334,7 +10354,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10453,6 +10473,11 @@
       </c>
       <c r="AR79" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -10570,6 +10595,11 @@
       </c>
       <c r="AR80" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -10720,7 +10750,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10871,6 +10901,11 @@
       </c>
       <c r="AR82" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -10986,7 +11021,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11138,7 +11173,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11255,7 +11290,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11372,7 +11407,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11491,6 +11526,11 @@
       </c>
       <c r="AR87" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -11608,6 +11648,11 @@
       </c>
       <c r="AR88" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT88" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -11723,7 +11768,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11840,7 +11885,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11992,7 +12037,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12144,7 +12189,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12296,7 +12341,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12413,7 +12458,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12530,7 +12575,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12647,7 +12692,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12799,7 +12844,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12948,7 +12993,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13100,7 +13145,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13252,7 +13297,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13404,7 +13449,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13556,7 +13601,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13675,6 +13720,11 @@
       </c>
       <c r="AR103" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT103" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -13790,7 +13840,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13907,7 +13957,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14026,6 +14076,11 @@
       </c>
       <c r="AR106" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT106" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -14173,7 +14228,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14325,7 +14380,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14474,7 +14529,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14626,7 +14681,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14778,7 +14833,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14902,7 +14957,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15026,7 +15081,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15150,7 +15205,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15274,7 +15329,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15398,7 +15453,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15522,7 +15577,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15636,7 +15691,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15755,7 +15810,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15874,7 +15929,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15993,7 +16048,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16112,7 +16167,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16231,7 +16286,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16350,7 +16405,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16508,7 +16563,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16663,7 +16718,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16821,7 +16876,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16979,7 +17034,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17093,7 +17148,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17240,7 +17295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17387,7 +17442,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17506,7 +17561,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17625,7 +17680,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17739,7 +17794,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -17845,7 +17900,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -17959,7 +18014,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18073,7 +18128,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18179,7 +18234,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18293,7 +18348,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18407,7 +18462,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18521,7 +18576,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18635,7 +18690,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18741,7 +18796,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18855,7 +18910,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -19002,7 +19057,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19149,7 +19204,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19296,7 +19351,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19443,7 +19498,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19590,7 +19645,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19737,7 +19792,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19884,7 +19939,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20003,7 +20058,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20122,7 +20177,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20284,7 +20339,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20446,7 +20501,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20608,7 +20663,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20770,7 +20825,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20932,7 +20987,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21094,7 +21149,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21256,7 +21311,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21408,7 +21463,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21570,7 +21625,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21732,7 +21787,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21889,7 +21944,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22034,7 +22089,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22179,7 +22234,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22324,7 +22379,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22482,7 +22537,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22627,7 +22682,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22741,7 +22796,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22886,7 +22941,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23019,7 +23074,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23152,7 +23207,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23285,7 +23340,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23418,7 +23473,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23548,7 +23603,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23681,7 +23736,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23814,7 +23869,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23956,7 +24011,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24089,7 +24144,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24231,7 +24286,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24364,7 +24419,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR182" t="inlineStr">
+      <c r="AT182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24521,7 +24576,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24678,7 +24733,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24835,7 +24890,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24992,7 +25047,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25149,7 +25204,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25306,7 +25361,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25463,7 +25518,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25609,6 +25664,11 @@
       </c>
       <c r="AR190" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT190" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25764,7 +25824,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25880,6 +25940,16 @@
       </c>
       <c r="AR192" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS192" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT192" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25994,6 +26064,16 @@
       </c>
       <c r="AR193" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS193" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT193" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26108,6 +26188,16 @@
       </c>
       <c r="AR194" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS194" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT194" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26222,6 +26312,16 @@
       </c>
       <c r="AR195" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS195" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26336,6 +26436,16 @@
       </c>
       <c r="AR196" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS196" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT196" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26498,6 +26608,11 @@
       </c>
       <c r="AR197" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT197" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26660,6 +26775,11 @@
       </c>
       <c r="AR198" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT198" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26832,6 +26952,11 @@
       </c>
       <c r="AR199" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT199" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26992,6 +27117,11 @@
       </c>
       <c r="AR200" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT200" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -27152,6 +27282,11 @@
       </c>
       <c r="AR201" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT201" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -27312,6 +27447,11 @@
       </c>
       <c r="AR202" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT202" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -27470,6 +27610,11 @@
       </c>
       <c r="AR203" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT203" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -27628,6 +27773,11 @@
       </c>
       <c r="AR204" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT204" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -27781,6 +27931,11 @@
       </c>
       <c r="AR205" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT205" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -27939,6 +28094,11 @@
       </c>
       <c r="AR206" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT206" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -28109,6 +28269,11 @@
       </c>
       <c r="AR207" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT207" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -28268,7 +28433,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -28440,6 +28605,11 @@
       </c>
       <c r="AR209" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT209" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -28610,6 +28780,11 @@
       </c>
       <c r="AR210" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT210" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -28780,6 +28955,11 @@
       </c>
       <c r="AR211" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT211" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -28950,6 +29130,11 @@
       </c>
       <c r="AR212" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT212" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29112,6 +29297,11 @@
       </c>
       <c r="AR213" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT213" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29253,7 +29443,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -29425,6 +29615,11 @@
       </c>
       <c r="AR215" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT215" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29597,6 +29792,11 @@
       </c>
       <c r="AR216" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT216" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29769,13 +29969,18 @@
       </c>
       <c r="AR217" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT217" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
